--- a/AzentioAutomationFramework_AnandhULS/TestData/ulsTestData.xlsx
+++ b/AzentioAutomationFramework_AnandhULS/TestData/ulsTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" firstSheet="37" activeTab="37"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" firstSheet="40" activeTab="45"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -52,13 +52,14 @@
     <sheet name="NewAppExecution" sheetId="41" r:id="rId43"/>
     <sheet name="RunnerTest" sheetId="45" r:id="rId44"/>
     <sheet name="MurabahaPurchaseOrder_TestData" sheetId="46" r:id="rId45"/>
+    <sheet name="ULSExecution" sheetId="47" r:id="rId46"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2809" uniqueCount="637">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3304" uniqueCount="668">
   <si>
     <t>UserName</t>
   </si>
@@ -1902,12 +1903,6 @@
     <t>0363</t>
   </si>
   <si>
-    <t>4142</t>
-  </si>
-  <si>
-    <t>4144</t>
-  </si>
-  <si>
     <t>0315</t>
   </si>
   <si>
@@ -1941,9 +1936,6 @@
     <t>Saudi National Bank</t>
   </si>
   <si>
-    <t>Pankaj Kumar</t>
-  </si>
-  <si>
     <t>South Zone</t>
   </si>
   <si>
@@ -1968,14 +1960,115 @@
     <t>State Bank of India Karnataka Bangalore</t>
   </si>
   <si>
-    <t>0323</t>
+    <t>4223</t>
+  </si>
+  <si>
+    <t>4225</t>
+  </si>
+  <si>
+    <t>userType07</t>
+  </si>
+  <si>
+    <t>v0169</t>
+  </si>
+  <si>
+    <t>AT_AL_APPDETAILS_01</t>
+  </si>
+  <si>
+    <t>DS01_AT_AL_APPDETAILS_01</t>
+  </si>
+  <si>
+    <t>AT_AL_APPDETAILS_02</t>
+  </si>
+  <si>
+    <t>DS01_AT_AL_APPDETAILS_02</t>
+  </si>
+  <si>
+    <t>AT_AL_APPDETAILS_03</t>
+  </si>
+  <si>
+    <t>DS01_AT_AL_APPDETAILS_03</t>
+  </si>
+  <si>
+    <t>AT_AL_CUSDETAILS_01</t>
+  </si>
+  <si>
+    <t>DS01_AT_AT_AL_CUSDETAILS_01</t>
+  </si>
+  <si>
+    <t>AT_AL_CUSDETAILS_02</t>
+  </si>
+  <si>
+    <t>DS01_AT_AT_AL_CUSDETAILS_02</t>
+  </si>
+  <si>
+    <t>AT_AL_CUSDETAILS_03</t>
+  </si>
+  <si>
+    <t>DS01_AT_AT_AL_CUSDETAILS_03</t>
+  </si>
+  <si>
+    <t>AT_AL_FD_01</t>
+  </si>
+  <si>
+    <t>DS01_AT_AL_FD_01</t>
+  </si>
+  <si>
+    <t>AT_AL_FD_02</t>
+  </si>
+  <si>
+    <t>DS01_AT_AL_FD_02</t>
+  </si>
+  <si>
+    <t>AT_AL_FD_03</t>
+  </si>
+  <si>
+    <t>DS01_AT_AL_FD_03</t>
+  </si>
+  <si>
+    <t>AT_AL_FD_04</t>
+  </si>
+  <si>
+    <t>DS01_AT_AL_FD_04</t>
+  </si>
+  <si>
+    <t>AT_AL_FD_05</t>
+  </si>
+  <si>
+    <t>AT_AL_FD_APPDATAENTRY_01</t>
+  </si>
+  <si>
+    <t>DS01_AT_AL_FD_APPDATAENTRY_01</t>
+  </si>
+  <si>
+    <t>AT_AL_FD_APPDATAENTRY_02</t>
+  </si>
+  <si>
+    <t>DS01_AT_AL_FD_APPDATAENTRY_02</t>
+  </si>
+  <si>
+    <t>AT_AL_FD_APPDATAENTRY_03</t>
+  </si>
+  <si>
+    <t>DS01_AT_AL_FD_APPDATAENTRY_03</t>
+  </si>
+  <si>
+    <t>AT_AL_FD_APPDATAENTRY_04</t>
+  </si>
+  <si>
+    <t>DS01_AT_AL_FD_APPDATAENTRY_04</t>
+  </si>
+  <si>
+    <t>AT_AL_FD_APPDATAENTRY_05</t>
+  </si>
+  <si>
+    <t>DS01_AT_AL_FD_APPDATAENTRY_05</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -2218,7 +2311,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2274,6 +2367,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="2"/>
@@ -2570,18 +2664,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="19.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="16.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="15.140625" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="19.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2658,6 +2752,17 @@
         <v>613</v>
       </c>
       <c r="C7" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B8" s="46" t="s">
+        <v>636</v>
+      </c>
+      <c r="C8" s="4" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2669,6 +2774,7 @@
     <hyperlink ref="C5" r:id="rId4"/>
     <hyperlink ref="C6" r:id="rId5"/>
     <hyperlink ref="C7" r:id="rId6"/>
+    <hyperlink ref="C8" r:id="rId7"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2684,14 +2790,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="32.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="31.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="34.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2795,18 +2901,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="23.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="30.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="26.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="24.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="29.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="25.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="36.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="15.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="22.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="3" width="17.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="3" width="19.140625" collapsed="true"/>
-    <col min="12" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="23" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="29.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="22.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17" style="3" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="19.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -2861,7 +2967,7 @@
         <v>233</v>
       </c>
       <c r="F2" s="17" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G2" s="17" t="s">
         <v>32</v>
@@ -2999,13 +3105,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="27.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="27.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3120,31 +3226,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="24.7109375" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="19.42578125" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="25" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="18" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -3268,13 +3374,13 @@
         <v>32</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="N2" s="7">
         <v>987456</v>
@@ -3541,14 +3647,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="27.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="38.5703125" collapsed="true"/>
+    <col min="1" max="1" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3663,21 +3769,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="21.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="30.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="27.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="25.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="28.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="31.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="33.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="29.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="24.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="3" width="20.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="3" width="26.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="3" width="15.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="3" width="28.28515625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="3" width="22.85546875" collapsed="true"/>
-    <col min="15" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="21.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="28.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="29" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="28.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="22.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="15" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -3896,14 +4002,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="30.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="29.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="32.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="26.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4002,45 +4108,45 @@
   <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Z7" sqref="Z7"/>
+      <selection activeCell="U6" sqref="U6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="36.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="39.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="24.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="27.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="21.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="15.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="15.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="15.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="26.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="44.85546875" collapsed="true"/>
-    <col min="11" max="12" customWidth="true" style="3" width="31.5703125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="3" width="28.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="3" width="29.28515625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="3" width="17.28515625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="3" width="34.28515625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="3" width="22.140625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="3" width="27.0" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="3" width="20.140625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="3" width="28.42578125" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="3" width="30.5703125" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="3" width="15.140625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="3" width="22.7109375" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="3" width="18.7109375" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="3" width="15.5703125" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="3" width="19.85546875" collapsed="true"/>
-    <col min="28" max="29" customWidth="true" style="3" width="20.42578125" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" style="3" width="16.0" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" style="3" width="19.42578125" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" style="3" width="22.140625" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" style="3" width="19.140625" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" style="3" width="19.0" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" style="3" width="20.0" collapsed="true"/>
-    <col min="36" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="36.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="26" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="44.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="31.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="28" style="3" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="29.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="34.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="22.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27" style="3" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="20.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="28.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="30.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="15.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="22.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="14.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="18.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="15.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="19.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="29" width="20.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="16" style="3" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="19.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="22.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="19.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="19" style="3" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="20" style="3" customWidth="1" collapsed="1"/>
+    <col min="36" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -4179,7 +4285,7 @@
         <v>297</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>149</v>
@@ -4203,16 +4309,16 @@
         <v>156</v>
       </c>
       <c r="R2" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="U2" s="7" t="s">
         <v>626</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>624</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>627</v>
       </c>
       <c r="V2" s="7" t="s">
         <v>161</v>
@@ -4227,16 +4333,16 @@
         <v>113</v>
       </c>
       <c r="Z2" s="7" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="AB2" s="7" t="s">
         <v>169</v>
       </c>
       <c r="AC2" s="7" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AD2" s="7" t="s">
         <v>174</v>
@@ -4434,7 +4540,7 @@
         <v>313</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>614</v>
+        <v>633</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>141</v>
@@ -4455,7 +4561,7 @@
         <v>297</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="K6" s="7" t="s">
         <v>149</v>
@@ -4479,16 +4585,16 @@
         <v>156</v>
       </c>
       <c r="R6" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="S6" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="U6" s="7" t="s">
         <v>626</v>
-      </c>
-      <c r="S6" s="7" t="s">
-        <v>624</v>
-      </c>
-      <c r="T6" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="U6" s="7" t="s">
-        <v>627</v>
       </c>
       <c r="V6" s="7" t="s">
         <v>161</v>
@@ -4503,16 +4609,16 @@
         <v>113</v>
       </c>
       <c r="Z6" s="7" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AA6" s="7" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="AB6" s="7" t="s">
         <v>169</v>
       </c>
       <c r="AC6" s="7" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AD6" s="7" t="s">
         <v>174</v>
@@ -4669,14 +4775,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="28.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="40.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="27" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4802,31 +4908,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="40.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="28.42578125" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="28.42578125" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="25" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="32.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -5259,21 +5365,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="38.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="1" max="1" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="38" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1">
@@ -5491,14 +5597,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="42.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="27.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="1" max="1" width="39.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="28.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -5613,17 +5719,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="29.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="1" max="1" width="26" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="27.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -5678,7 +5784,7 @@
         <v>331</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G2" s="28" t="s">
         <v>32</v>
@@ -5844,14 +5950,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="27.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="28.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="27.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="28.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="27.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -5986,33 +6092,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="30.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="1" max="1" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.7109375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="16" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="25.140625" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="16" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="20.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -6136,13 +6242,13 @@
         <v>32</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="N2" s="7">
         <v>987456</v>
@@ -6453,14 +6559,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="28.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="27.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="29.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -6598,13 +6704,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -6730,33 +6836,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="32.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="33.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="28.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="31.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="30.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="29.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="34.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="38.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="39.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="3" width="35.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="3" width="28.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="3" width="32.5703125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="3" width="33.140625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="3" width="29.140625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="3" width="30.28515625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="3" width="34.0" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="3" width="29.5703125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="3" width="27.7109375" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="3" width="20.7109375" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="3" width="36.28515625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="3" width="28.5703125" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="3" width="39.5703125" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="3" width="26.7109375" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="3" width="21.28515625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="3" width="23.140625" collapsed="true"/>
-    <col min="27" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="32.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="39.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="35.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="28.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="32.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="33.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="29.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="30.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="34" style="3" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="29.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="20.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="36.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="28.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="39.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="26.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="21.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="23.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="27" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -7153,22 +7259,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="24.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="21.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -7455,14 +7561,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="25.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="27" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -7588,33 +7694,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="32.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="33.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="28.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="31.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="30.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="29.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="34.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="38.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="39.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="3" width="35.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="3" width="28.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="3" width="32.5703125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="3" width="33.140625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="3" width="29.140625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="3" width="30.28515625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="3" width="34.0" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="3" width="29.5703125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="3" width="27.7109375" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="3" width="20.7109375" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="3" width="36.28515625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="3" width="28.5703125" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="3" width="39.5703125" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="3" width="26.7109375" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="3" width="21.28515625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="3" width="23.140625" collapsed="true"/>
-    <col min="27" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="32.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="39.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="35.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="28.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="32.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="33.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="29.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="30.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="34" style="3" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="29.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="20.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="36.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="28.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="39.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="26.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="21.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="23.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="27" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -8011,34 +8117,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="17.7109375" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="3" width="26.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="21.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="20.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="32.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="23.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="25.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="27.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="3" width="26.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="3" width="18.7109375" collapsed="true"/>
-    <col min="12" max="12" style="3" width="9.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="3" width="29.5703125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="3" width="14.85546875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="3" width="19.42578125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="3" width="20.85546875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="3" width="30.7109375" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="3" width="21.85546875" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="3" width="41.5703125" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="3" width="24.42578125" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="3" width="29.5703125" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="3" width="24.140625" collapsed="true"/>
-    <col min="23" max="24" customWidth="true" style="3" width="26.85546875" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="3" width="26.42578125" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="3" width="22.5703125" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="3" width="17.85546875" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="3" width="16.140625" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="3" width="20.42578125" collapsed="true"/>
-    <col min="30" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="17.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="26" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="25" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="27.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="26.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.140625" style="3" collapsed="1"/>
+    <col min="13" max="13" width="29.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="14.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="19.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="20.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="30.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="21.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="41.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="24.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="29.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="24.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="23" max="24" width="26.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="26.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="22.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="17.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="16.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="20.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="30" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -8440,14 +8546,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="33.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="35.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="1" max="1" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="29.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -8603,47 +8709,47 @@
   <dimension ref="A1:AJ8"/>
   <sheetViews>
     <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="Z5" sqref="Z5"/>
+      <selection activeCell="Y20" sqref="Y20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="30.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="62.5703125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="35.140625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="35.5703125" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="30.42578125" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="29.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="30.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="62.5703125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="34.42578125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="35.5703125" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="30.42578125" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="23" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="24.42578125" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="17" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="18" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="18.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -8788,7 +8894,7 @@
         <v>491</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="L2" s="7" t="s">
         <v>149</v>
@@ -8812,16 +8918,16 @@
         <v>156</v>
       </c>
       <c r="S2" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="U2" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="V2" s="7" t="s">
         <v>626</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>624</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="V2" s="7" t="s">
-        <v>627</v>
       </c>
       <c r="W2" s="7" t="s">
         <v>161</v>
@@ -8836,16 +8942,16 @@
         <v>113</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AB2" s="7" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="AC2" s="7" t="s">
         <v>169</v>
       </c>
       <c r="AD2" s="7" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AE2" s="7" t="s">
         <v>174</v>
@@ -8888,7 +8994,7 @@
         <v>491</v>
       </c>
       <c r="K3" s="7" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
@@ -8952,7 +9058,7 @@
         <v>491</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="L4" s="7" t="s">
         <v>306</v>
@@ -9018,7 +9124,7 @@
         <v>491</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="L5" s="6"/>
       <c r="M5" s="6"/>
@@ -9060,7 +9166,7 @@
         <v>370</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>615</v>
+        <v>634</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>141</v>
@@ -9084,7 +9190,7 @@
         <v>491</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>149</v>
@@ -9108,16 +9214,16 @@
         <v>156</v>
       </c>
       <c r="S6" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="T6" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="U6" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="V6" s="7" t="s">
         <v>626</v>
-      </c>
-      <c r="T6" s="7" t="s">
-        <v>624</v>
-      </c>
-      <c r="U6" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="V6" s="7" t="s">
-        <v>627</v>
       </c>
       <c r="W6" s="7" t="s">
         <v>161</v>
@@ -9132,16 +9238,16 @@
         <v>113</v>
       </c>
       <c r="AA6" s="7" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="AB6" s="7" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="AC6" s="7" t="s">
         <v>169</v>
       </c>
       <c r="AD6" s="7" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AE6" s="7" t="s">
         <v>174</v>
@@ -9182,7 +9288,7 @@
         <v>491</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="L7" s="6"/>
       <c r="M7" s="6"/>
@@ -9250,7 +9356,7 @@
         <v>491</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="L8" s="6"/>
       <c r="M8" s="6"/>
@@ -9308,34 +9414,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="33.5703125" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="1" max="1" width="39.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="20" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="21.5703125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="21" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="26.5703125" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="23.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -9768,35 +9874,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="33.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="41.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="33.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="1" max="1" width="33.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="22" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.5703125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="24.42578125" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="19" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="29.42578125" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="23" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="18.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -9920,13 +10026,13 @@
         <v>32</v>
       </c>
       <c r="K2" s="7" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="L2" s="7" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="M2" s="7" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="N2" s="7">
         <v>987456</v>
@@ -10233,22 +10339,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="39.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="24.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22.5703125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="20.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -10535,17 +10641,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="30.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="30.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -10600,7 +10706,7 @@
         <v>331</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="G2" s="28" t="s">
         <v>32</v>
@@ -10765,15 +10871,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="35.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="30.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="36.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="32.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="1" max="1" width="25" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="35.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="30.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -10888,14 +10994,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="36.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="29.5703125" collapsed="true"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="29.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -10974,29 +11080,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="29.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="28.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="29.5703125" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" width="36.85546875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="30.140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="28.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="29" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="29.5703125" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="36.85546875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="30.140625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="28.85546875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="32.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -11093,7 +11199,7 @@
         <v>595</v>
       </c>
       <c r="M2" s="17" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
       <c r="N2" s="7" t="s">
         <v>596</v>
@@ -11153,14 +11259,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="36.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="33.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="41" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="33.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -11213,7 +11319,7 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="6" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B4" s="26"/>
       <c r="C4" s="38" t="s">
@@ -11233,7 +11339,7 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="26" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B6" s="26"/>
       <c r="C6" s="38" t="s">
@@ -11253,7 +11359,7 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="26" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B8" s="26"/>
       <c r="C8" s="38" t="s">
@@ -11262,7 +11368,7 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="26" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B9" s="26"/>
       <c r="C9" s="38" t="s">
@@ -11289,13 +11395,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="32.85546875" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="27.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -11410,14 +11516,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="42.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="30.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="39.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="1" max="1" width="32.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="42.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="39.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="36.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -11821,14 +11927,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="36.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="47.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="31.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="43.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="32.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="1" max="1" width="36.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="47.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="34.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="43" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -12332,7 +12438,7 @@
     </row>
     <row r="45" spans="1:3">
       <c r="A45" s="6" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B45" s="26"/>
       <c r="C45" s="38" t="s">
@@ -12352,7 +12458,7 @@
     </row>
     <row r="47" spans="1:3">
       <c r="A47" s="26" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B47" s="26"/>
       <c r="C47" s="38" t="s">
@@ -12372,7 +12478,7 @@
     </row>
     <row r="49" spans="1:3">
       <c r="A49" s="26" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="B49" s="26"/>
       <c r="C49" s="38" t="s">
@@ -12381,7 +12487,7 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="26" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
       <c r="B50" s="26"/>
       <c r="C50" s="38" t="s">
@@ -12409,14 +12515,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="47.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="27.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="28.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="32.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="47.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="28.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="28.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -12866,21 +12972,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I108"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A80" workbookViewId="0">
+      <selection sqref="A1:D108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="69.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="32.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="42.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="39.5703125" collapsed="true"/>
+    <col min="1" max="1" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="69.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="41" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="39.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -12934,7 +13040,7 @@
         <v>176</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>127</v>
@@ -14430,15 +14536,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="1" max="1" width="27" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -14528,9 +14634,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.72265625" collapsed="true"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -14552,7 +14658,7 @@
         <v>611</v>
       </c>
       <c r="C2" s="27" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -14563,11 +14669,1772 @@
         <v>612</v>
       </c>
       <c r="C3" s="27" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D124"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="J104" sqref="J104"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="34.7109375" customWidth="1"/>
+    <col min="2" max="2" width="38.85546875" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>603</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>447</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>449</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>457</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>458</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="B41" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="B42" s="44" t="s">
+        <v>321</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="B43" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="B44" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="B45" s="44" t="s">
+        <v>324</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="B46" s="44" t="s">
+        <v>325</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="B47" s="44" t="s">
+        <v>334</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="B48" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="B49" s="44" t="s">
+        <v>340</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="B50" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="B51" s="44" t="s">
+        <v>342</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="B52" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="B53" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B54" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B55" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B56" s="33" t="s">
+        <v>352</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="B57" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="B58" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="B59" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="B60" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="B61" s="33" t="s">
+        <v>461</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="22" t="s">
+        <v>462</v>
+      </c>
+      <c r="B62" s="33" t="s">
+        <v>463</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="B63" s="33" t="s">
+        <v>465</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="B64" s="33" t="s">
+        <v>467</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="22" t="s">
+        <v>468</v>
+      </c>
+      <c r="B65" s="33" t="s">
+        <v>469</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="B66" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="22" t="s">
+        <v>472</v>
+      </c>
+      <c r="B67" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="26" t="s">
+        <v>474</v>
+      </c>
+      <c r="B68" s="44" t="s">
+        <v>475</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D68" s="45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="B69" s="44" t="s">
+        <v>477</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D69" s="45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="26" t="s">
+        <v>478</v>
+      </c>
+      <c r="B70" s="44" t="s">
+        <v>479</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D70" s="45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="26" t="s">
+        <v>480</v>
+      </c>
+      <c r="B71" s="44" t="s">
+        <v>481</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D71" s="45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="26" t="s">
+        <v>482</v>
+      </c>
+      <c r="B72" s="44" t="s">
+        <v>483</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D72" s="45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="26" t="s">
+        <v>484</v>
+      </c>
+      <c r="B73" s="44" t="s">
+        <v>485</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D73" s="45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="26" t="s">
+        <v>486</v>
+      </c>
+      <c r="B74" s="44" t="s">
+        <v>487</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D74" s="45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="B75" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="B76" s="33" t="s">
+        <v>364</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D76" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="B77" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D77" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="B78" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D78" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="B79" s="33" t="s">
+        <v>370</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D79" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="B80" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D80" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="B81" s="33" t="s">
+        <v>374</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D81" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="26" t="s">
+        <v>522</v>
+      </c>
+      <c r="B82" s="44" t="s">
+        <v>528</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D82" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="26" t="s">
+        <v>523</v>
+      </c>
+      <c r="B83" s="44" t="s">
+        <v>529</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D83" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="26" t="s">
+        <v>524</v>
+      </c>
+      <c r="B84" s="44" t="s">
+        <v>530</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D84" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="26" t="s">
+        <v>525</v>
+      </c>
+      <c r="B85" s="44" t="s">
+        <v>531</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D85" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="26" t="s">
+        <v>526</v>
+      </c>
+      <c r="B86" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D86" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="26" t="s">
+        <v>527</v>
+      </c>
+      <c r="B87" s="44" t="s">
+        <v>533</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D87" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="B88" s="33" t="s">
+        <v>541</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D88" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="B89" s="33" t="s">
+        <v>542</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D89" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="B90" s="33" t="s">
+        <v>543</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D90" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="B91" s="33" t="s">
+        <v>544</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D91" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="B92" s="33" t="s">
+        <v>545</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D92" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="B93" s="33" t="s">
+        <v>546</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D93" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B94" s="33" t="s">
+        <v>547</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D94" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="B95" s="33" t="s">
+        <v>500</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D95" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="B96" s="33" t="s">
+        <v>501</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D96" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="22" t="s">
+        <v>496</v>
+      </c>
+      <c r="B97" s="33" t="s">
+        <v>502</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D97" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="22" t="s">
+        <v>497</v>
+      </c>
+      <c r="B98" s="33" t="s">
+        <v>503</v>
+      </c>
+      <c r="C98" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D98" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="B99" s="33" t="s">
+        <v>504</v>
+      </c>
+      <c r="C99" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D99" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="B100" s="33" t="s">
+        <v>520</v>
+      </c>
+      <c r="C100" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D100" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="22" t="s">
+        <v>519</v>
+      </c>
+      <c r="B101" s="33" t="s">
+        <v>521</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D101" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="B102" s="44" t="s">
+        <v>512</v>
+      </c>
+      <c r="C102" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D102" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="22" t="s">
+        <v>506</v>
+      </c>
+      <c r="B103" s="44" t="s">
+        <v>513</v>
+      </c>
+      <c r="C103" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D103" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="22" t="s">
+        <v>507</v>
+      </c>
+      <c r="B104" s="44" t="s">
+        <v>514</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D104" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="B105" s="44" t="s">
+        <v>515</v>
+      </c>
+      <c r="C105" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D105" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="B106" s="44" t="s">
+        <v>516</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D106" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="B107" s="44" t="s">
+        <v>517</v>
+      </c>
+      <c r="C107" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D107" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="B108" s="44" t="s">
+        <v>518</v>
+      </c>
+      <c r="C108" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D108" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D109" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D110" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D111" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="C112" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D112" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="C113" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D113" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="C114" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D114" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="C115" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D115" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="C116" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D116" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="C117" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D117" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>656</v>
+      </c>
+      <c r="C118" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D118" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="6" t="s">
+        <v>657</v>
+      </c>
+      <c r="B119" s="6"/>
+      <c r="C119" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D119" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="47" t="s">
+        <v>658</v>
+      </c>
+      <c r="B120" s="47" t="s">
+        <v>659</v>
+      </c>
+      <c r="C120" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D120" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="47" t="s">
+        <v>660</v>
+      </c>
+      <c r="B121" s="47" t="s">
+        <v>661</v>
+      </c>
+      <c r="C121" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D121" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="47" t="s">
+        <v>662</v>
+      </c>
+      <c r="B122" s="47" t="s">
+        <v>663</v>
+      </c>
+      <c r="C122" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D122" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="47" t="s">
+        <v>664</v>
+      </c>
+      <c r="B123" s="47" t="s">
+        <v>665</v>
+      </c>
+      <c r="C123" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D123" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="47" t="s">
+        <v>666</v>
+      </c>
+      <c r="B124" s="47" t="s">
+        <v>667</v>
+      </c>
+      <c r="C124" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D124" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D108">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -14581,13 +16448,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="26.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="24.5703125" collapsed="true"/>
-    <col min="3" max="34" customWidth="true" style="3" width="33.85546875" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" style="3" width="26.28515625" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" style="3" width="30.42578125" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" style="3" width="22.7109375" collapsed="true"/>
-    <col min="38" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="26.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="34" width="33.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="26.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="30.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="22.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="38" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
@@ -14852,7 +16719,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F41" sqref="F41"/>
@@ -14860,15 +16727,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="37.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="33.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="37" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="33.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="27.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -14934,43 +16801,43 @@
   <dimension ref="A1:AE4"/>
   <sheetViews>
     <sheetView topLeftCell="R1" workbookViewId="0">
-      <selection activeCell="X2" sqref="X2:AA2"/>
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="20.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="35.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="30.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="25.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="24.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="30.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="40.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="27.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="32.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="3" width="43.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="3" width="32.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="3" width="30.85546875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="3" width="28.85546875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="3" width="32.140625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="3" width="21.28515625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="3" width="39.7109375" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="3" width="15.5703125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="3" width="40.85546875" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="3" width="24.0" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="3" width="31.140625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="3" width="31.28515625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="3" width="15.140625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="3" width="16.7109375" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="3" width="19.42578125" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="3" width="20.7109375" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="3" width="24.0" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="3" width="31.42578125" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="3" width="26.7109375" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" style="3" width="26.42578125" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" style="3" width="17.5703125" collapsed="true"/>
-    <col min="32" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="20.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="40.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="27.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="32.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="43.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="32.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="28.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="32.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="21.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="39.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="15.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="40.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="24" style="3" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="31.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="31.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="15.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="16.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="19.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="20.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="24" style="3" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="31.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="26.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="26.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="17.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="32" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -15094,10 +16961,10 @@
         <v>140</v>
       </c>
       <c r="I2" s="7" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="J2" s="7" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="K2" s="7" t="s">
         <v>149</v>
@@ -15121,16 +16988,16 @@
         <v>156</v>
       </c>
       <c r="R2" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="S2" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="T2" s="7" t="s">
+        <v>623</v>
+      </c>
+      <c r="U2" s="7" t="s">
         <v>626</v>
-      </c>
-      <c r="S2" s="7" t="s">
-        <v>624</v>
-      </c>
-      <c r="T2" s="7" t="s">
-        <v>625</v>
-      </c>
-      <c r="U2" s="7" t="s">
-        <v>627</v>
       </c>
       <c r="V2" s="7" t="s">
         <v>156</v>
@@ -15139,16 +17006,16 @@
         <v>113</v>
       </c>
       <c r="X2" s="7" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="Y2" s="7" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="Z2" s="7" t="s">
         <v>169</v>
       </c>
       <c r="AA2" s="7" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="AB2" s="7" t="s">
         <v>174</v>
@@ -15272,14 +17139,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="33.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="1" max="1" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -15361,35 +17228,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="24.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="37.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="26.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="18.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="21.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="19.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="21.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="30.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="31.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="3" width="29.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="3" width="28.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="3" width="25.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="3" width="21.140625" collapsed="true"/>
-    <col min="14" max="15" style="3" width="9.140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="3" width="17.42578125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="3" width="26.85546875" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="3" width="16.5703125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="3" width="20.0" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="3" width="13.5703125" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="3" width="22.140625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="3" width="21.28515625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="3" width="43.28515625" collapsed="true"/>
-    <col min="24" max="24" style="3" width="9.140625" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="3" width="18.140625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="3" width="20.0" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="3" width="23.42578125" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="3" width="27.0" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="3" width="23.85546875" collapsed="true"/>
-    <col min="30" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="24.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="31.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="29.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="28.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="25" style="3" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="14" max="15" width="9.140625" style="3" collapsed="1"/>
+    <col min="16" max="16" width="17.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="26.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="16.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="20" style="3" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="22.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="21.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="43.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9.140625" style="3" collapsed="1"/>
+    <col min="25" max="25" width="18.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="20" style="3" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="23.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="27" style="3" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="23.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="30" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">

--- a/AzentioAutomationFramework_AnandhULS/TestData/ulsTestData.xlsx
+++ b/AzentioAutomationFramework_AnandhULS/TestData/ulsTestData.xlsx
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3304" uniqueCount="668">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9362" uniqueCount="674">
   <si>
     <t>UserName</t>
   </si>
@@ -2063,12 +2063,31 @@
   </si>
   <si>
     <t>DS01_AT_AL_FD_APPDATAENTRY_05</t>
+  </si>
+  <si>
+    <t>4573</t>
+  </si>
+  <si>
+    <t>4575</t>
+  </si>
+  <si>
+    <t>4607</t>
+  </si>
+  <si>
+    <t>4609</t>
+  </si>
+  <si>
+    <t>4633</t>
+  </si>
+  <si>
+    <t>4635</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -2672,10 +2691,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="19.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="16.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="15.140625" collapsed="true"/>
+    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2790,14 +2809,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="32.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="34.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2901,18 +2920,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="29.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17" style="3" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="19.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="23.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="30.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="26.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="24.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="29.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="25.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="36.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="15.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="22.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="3" width="17.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="3" width="19.140625" collapsed="true"/>
+    <col min="12" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3105,13 +3124,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="27.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="27.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3226,31 +3245,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="26.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.42578125" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="25" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="18" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="18.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -3647,14 +3666,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3769,21 +3788,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="28.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="29" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="24.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="28.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="15" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="21.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="30.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="27.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="25.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="28.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="31.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="33.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="29.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="24.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="3" width="20.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="3" width="26.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="3" width="15.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="3" width="28.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="3" width="22.85546875" collapsed="true"/>
+    <col min="15" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -4002,14 +4021,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="26.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4113,40 +4132,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="26" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="44.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="31.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="28" style="3" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="29.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="34.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="22.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="27" style="3" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="20.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="28.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="30.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="15.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="22.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="14.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="18.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="15.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="19.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="28" max="29" width="20.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="16" style="3" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="19.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="22.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="19.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="19" style="3" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="20" style="3" customWidth="1" collapsed="1"/>
-    <col min="36" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="36.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="39.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="24.859375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="27.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="21.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="15.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="15.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="15.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="26.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="44.85546875" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" style="3" width="31.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="3" width="28.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="3" width="29.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="3" width="17.28515625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="3" width="34.28515625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="3" width="22.140625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="3" width="27.0" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="3" width="20.140625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="3" width="28.42578125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="3" width="30.5703125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="3" width="15.140625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="3" width="22.7109375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="3" width="18.7109375" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="3" width="15.5703125" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="3" width="19.85546875" collapsed="true"/>
+    <col min="28" max="29" customWidth="true" style="3" width="20.42578125" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="3" width="16.0" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="3" width="19.42578125" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="3" width="22.140625" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="3" width="19.140625" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="3" width="19.0" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="3" width="20.0" collapsed="true"/>
+    <col min="36" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -4540,7 +4559,7 @@
         <v>313</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>633</v>
+        <v>672</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>141</v>
@@ -4775,14 +4794,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="27" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="27.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4908,31 +4927,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="22.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="28.42578125" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="25" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="32.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -5365,21 +5384,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="38" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="38.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1">
@@ -5597,14 +5616,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="42.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="27.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="28.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -5719,17 +5738,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="27.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="24" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -5950,14 +5969,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="28.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="27.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -6092,33 +6111,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.7109375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="16" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="25.140625" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="16" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="24.140625" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="19.5703125" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="20.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -6559,14 +6578,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="29.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -6704,13 +6723,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="30.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -6836,33 +6855,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="39.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="35.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="32.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="33.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="29.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="30.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="34" style="3" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="29.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="27.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="20.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="36.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="28.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="39.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="26.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="21.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="23.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="27" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="32.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="33.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="28.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="31.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="30.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="29.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="34.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="38.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="39.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="3" width="35.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="3" width="28.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="3" width="32.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="3" width="33.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="3" width="29.140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="3" width="30.28515625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="3" width="34.0" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="3" width="29.5703125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="3" width="27.7109375" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="3" width="20.7109375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="3" width="36.28515625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="3" width="28.5703125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="3" width="39.5703125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="3" width="26.7109375" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="3" width="21.28515625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="3" width="23.140625" collapsed="true"/>
+    <col min="27" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -7259,22 +7278,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="21.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="21.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -7561,14 +7580,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="27" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="25.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="27.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -7694,33 +7713,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="39.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="35.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="32.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="33.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="29.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="30.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="34" style="3" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="29.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="27.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="20.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="36.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="28.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="39.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="26.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="21.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="23.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="27" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="32.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="33.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="28.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="31.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="30.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="29.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="34.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="38.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="39.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="3" width="35.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="3" width="28.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="3" width="32.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="3" width="33.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="3" width="29.140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="3" width="30.28515625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="3" width="34.0" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="3" width="29.5703125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="3" width="27.7109375" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="3" width="20.7109375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="3" width="36.28515625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="3" width="28.5703125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="3" width="39.5703125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="3" width="26.7109375" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="3" width="21.28515625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="3" width="23.140625" collapsed="true"/>
+    <col min="27" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -8117,34 +8136,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="26" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="25" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="27.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="26.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.140625" style="3" collapsed="1"/>
-    <col min="13" max="13" width="29.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="14.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="19.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="20.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="30.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="21.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="41.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="24.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="29.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="24.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="26.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="26.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="22.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="17.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="16.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="20.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="30" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="17.7109375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="3" width="26.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="21.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="20.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="32.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="23.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="25.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="27.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="3" width="26.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="3" width="18.7109375" collapsed="true"/>
+    <col min="12" max="12" style="3" width="9.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="3" width="29.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="3" width="14.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="3" width="19.42578125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="3" width="20.85546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="3" width="30.7109375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="3" width="21.85546875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="3" width="41.5703125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="3" width="24.42578125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="3" width="29.5703125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="3" width="24.140625" collapsed="true"/>
+    <col min="23" max="24" customWidth="true" style="3" width="26.85546875" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="3" width="26.42578125" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="3" width="22.5703125" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="3" width="17.85546875" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="3" width="16.140625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="3" width="20.42578125" collapsed="true"/>
+    <col min="30" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -8546,14 +8565,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="29.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -8714,42 +8733,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="29.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="62.5703125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="34.42578125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19.140625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="35.140625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="35.5703125" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="30.42578125" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="23.5703125" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="23" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="24.42578125" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="17" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="22.42578125" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="18" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.859375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="62.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="35.5703125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="18.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -9166,7 +9185,7 @@
         <v>370</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>634</v>
+        <v>673</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>141</v>
@@ -9414,34 +9433,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="20" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="21.5703125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="19.140625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="21" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="26.5703125" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="23.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -9874,35 +9893,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="22" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.5703125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="24.140625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="24.42578125" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="29.42578125" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="23" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="41.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="18.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -10339,22 +10358,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.5703125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="20.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -10641,17 +10660,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="30.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.85546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -10871,15 +10890,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="35.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="36.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="37.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="24" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="35.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="24.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -10994,14 +11013,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="29.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="29.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -11086,23 +11105,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="29.5703125" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="36.85546875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="30.140625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="28.85546875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="29.5703125" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="36.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="32.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -11259,14 +11278,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="30.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="36.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="41" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="33.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -11395,13 +11414,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="27.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="27.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -11516,14 +11535,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="42.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="42.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -11927,14 +11946,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="47.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="34.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="43" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="47.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="31.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="43.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="30.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -12515,14 +12534,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="47.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="28.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="47.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="28.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -12978,15 +12997,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="69.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="41" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="39.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="69.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="39.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -14536,15 +14555,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -14634,9 +14653,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -14687,10 +14706,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1"/>
-    <col min="2" max="2" width="38.85546875" customWidth="1"/>
-    <col min="3" max="3" width="21.85546875" customWidth="1"/>
-    <col min="4" max="4" width="25" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.1171875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -14715,7 +14734,7 @@
         <v>132</v>
       </c>
       <c r="C2" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D2" s="24" t="s">
         <v>127</v>
@@ -14729,7 +14748,7 @@
         <v>176</v>
       </c>
       <c r="C3" s="18" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="D3" s="24" t="s">
         <v>127</v>
@@ -14743,7 +14762,7 @@
         <v>181</v>
       </c>
       <c r="C4" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D4" s="24" t="s">
         <v>127</v>
@@ -14757,7 +14776,7 @@
         <v>184</v>
       </c>
       <c r="C5" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D5" s="24" t="s">
         <v>127</v>
@@ -14771,7 +14790,7 @@
         <v>219</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D6" s="24" t="s">
         <v>127</v>
@@ -14785,7 +14804,7 @@
         <v>223</v>
       </c>
       <c r="C7" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D7" s="24" t="s">
         <v>127</v>
@@ -14799,7 +14818,7 @@
         <v>224</v>
       </c>
       <c r="C8" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D8" s="24" t="s">
         <v>127</v>
@@ -14813,7 +14832,7 @@
         <v>226</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D9" s="24" t="s">
         <v>127</v>
@@ -14827,7 +14846,7 @@
         <v>235</v>
       </c>
       <c r="C10" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D10" s="24" t="s">
         <v>127</v>
@@ -14841,7 +14860,7 @@
         <v>237</v>
       </c>
       <c r="C11" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D11" s="24" t="s">
         <v>127</v>
@@ -14855,7 +14874,7 @@
         <v>239</v>
       </c>
       <c r="C12" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D12" s="24" t="s">
         <v>127</v>
@@ -14869,7 +14888,7 @@
         <v>242</v>
       </c>
       <c r="C13" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D13" s="24" t="s">
         <v>127</v>
@@ -14883,7 +14902,7 @@
         <v>248</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D14" s="24" t="s">
         <v>127</v>
@@ -14897,7 +14916,7 @@
         <v>244</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D15" s="24" t="s">
         <v>127</v>
@@ -14911,7 +14930,7 @@
         <v>251</v>
       </c>
       <c r="C16" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D16" s="24" t="s">
         <v>127</v>
@@ -14925,7 +14944,7 @@
         <v>253</v>
       </c>
       <c r="C17" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D17" s="24" t="s">
         <v>127</v>
@@ -14939,7 +14958,7 @@
         <v>255</v>
       </c>
       <c r="C18" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D18" s="24" t="s">
         <v>127</v>
@@ -14953,7 +14972,7 @@
         <v>257</v>
       </c>
       <c r="C19" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D19" s="24" t="s">
         <v>127</v>
@@ -14967,7 +14986,7 @@
         <v>260</v>
       </c>
       <c r="C20" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D20" s="24" t="s">
         <v>127</v>
@@ -14981,7 +15000,7 @@
         <v>262</v>
       </c>
       <c r="C21" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D21" s="24" t="s">
         <v>127</v>
@@ -14995,7 +15014,7 @@
         <v>278</v>
       </c>
       <c r="C22" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D22" s="24" t="s">
         <v>127</v>
@@ -15009,7 +15028,7 @@
         <v>276</v>
       </c>
       <c r="C23" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D23" s="24" t="s">
         <v>127</v>
@@ -15023,7 +15042,7 @@
         <v>291</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D24" s="24" t="s">
         <v>127</v>
@@ -15037,7 +15056,7 @@
         <v>294</v>
       </c>
       <c r="C25" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D25" s="24" t="s">
         <v>127</v>
@@ -15051,7 +15070,7 @@
         <v>296</v>
       </c>
       <c r="C26" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D26" s="24" t="s">
         <v>127</v>
@@ -15065,7 +15084,7 @@
         <v>447</v>
       </c>
       <c r="C27" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D27" s="24" t="s">
         <v>127</v>
@@ -15079,7 +15098,7 @@
         <v>449</v>
       </c>
       <c r="C28" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D28" s="24" t="s">
         <v>127</v>
@@ -15093,7 +15112,7 @@
         <v>455</v>
       </c>
       <c r="C29" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D29" s="24" t="s">
         <v>127</v>
@@ -15107,7 +15126,7 @@
         <v>456</v>
       </c>
       <c r="C30" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D30" s="24" t="s">
         <v>127</v>
@@ -15121,7 +15140,7 @@
         <v>457</v>
       </c>
       <c r="C31" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D31" s="24" t="s">
         <v>127</v>
@@ -15135,7 +15154,7 @@
         <v>458</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D32" s="24" t="s">
         <v>127</v>
@@ -15149,7 +15168,7 @@
         <v>459</v>
       </c>
       <c r="C33" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D33" s="24" t="s">
         <v>127</v>
@@ -15163,7 +15182,7 @@
         <v>302</v>
       </c>
       <c r="C34" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D34" s="24" t="s">
         <v>127</v>
@@ -15177,7 +15196,7 @@
         <v>303</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D35" s="24" t="s">
         <v>127</v>
@@ -15191,7 +15210,7 @@
         <v>305</v>
       </c>
       <c r="C36" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D36" s="24" t="s">
         <v>127</v>
@@ -15205,7 +15224,7 @@
         <v>308</v>
       </c>
       <c r="C37" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D37" s="24" t="s">
         <v>127</v>
@@ -15219,7 +15238,7 @@
         <v>313</v>
       </c>
       <c r="C38" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D38" s="24" t="s">
         <v>127</v>
@@ -15233,7 +15252,7 @@
         <v>330</v>
       </c>
       <c r="C39" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D39" s="24" t="s">
         <v>127</v>
@@ -15247,7 +15266,7 @@
         <v>310</v>
       </c>
       <c r="C40" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D40" s="24" t="s">
         <v>127</v>
@@ -15261,7 +15280,7 @@
         <v>320</v>
       </c>
       <c r="C41" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D41" s="24" t="s">
         <v>127</v>
@@ -15275,7 +15294,7 @@
         <v>321</v>
       </c>
       <c r="C42" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D42" s="24" t="s">
         <v>127</v>
@@ -15289,7 +15308,7 @@
         <v>322</v>
       </c>
       <c r="C43" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D43" s="24" t="s">
         <v>127</v>
@@ -15303,7 +15322,7 @@
         <v>323</v>
       </c>
       <c r="C44" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D44" s="24" t="s">
         <v>127</v>
@@ -15317,7 +15336,7 @@
         <v>324</v>
       </c>
       <c r="C45" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D45" s="24" t="s">
         <v>127</v>
@@ -15331,7 +15350,7 @@
         <v>325</v>
       </c>
       <c r="C46" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D46" s="24" t="s">
         <v>127</v>
@@ -15345,7 +15364,7 @@
         <v>334</v>
       </c>
       <c r="C47" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D47" s="24" t="s">
         <v>127</v>
@@ -15359,7 +15378,7 @@
         <v>339</v>
       </c>
       <c r="C48" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D48" s="24" t="s">
         <v>127</v>
@@ -15373,7 +15392,7 @@
         <v>340</v>
       </c>
       <c r="C49" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D49" s="24" t="s">
         <v>127</v>
@@ -15387,7 +15406,7 @@
         <v>341</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D50" s="24" t="s">
         <v>127</v>
@@ -15401,7 +15420,7 @@
         <v>342</v>
       </c>
       <c r="C51" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D51" s="24" t="s">
         <v>127</v>
@@ -15415,7 +15434,7 @@
         <v>344</v>
       </c>
       <c r="C52" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D52" s="24" t="s">
         <v>127</v>
@@ -15429,7 +15448,7 @@
         <v>346</v>
       </c>
       <c r="C53" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D53" s="24" t="s">
         <v>127</v>
@@ -15443,7 +15462,7 @@
         <v>348</v>
       </c>
       <c r="C54" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D54" s="24" t="s">
         <v>127</v>
@@ -15457,7 +15476,7 @@
         <v>350</v>
       </c>
       <c r="C55" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D55" s="24" t="s">
         <v>127</v>
@@ -15471,7 +15490,7 @@
         <v>352</v>
       </c>
       <c r="C56" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D56" s="24" t="s">
         <v>127</v>
@@ -15485,7 +15504,7 @@
         <v>354</v>
       </c>
       <c r="C57" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D57" s="24" t="s">
         <v>127</v>
@@ -15499,7 +15518,7 @@
         <v>356</v>
       </c>
       <c r="C58" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D58" s="24" t="s">
         <v>127</v>
@@ -15513,7 +15532,7 @@
         <v>358</v>
       </c>
       <c r="C59" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D59" s="24" t="s">
         <v>127</v>
@@ -15527,7 +15546,7 @@
         <v>360</v>
       </c>
       <c r="C60" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D60" s="24" t="s">
         <v>127</v>
@@ -15541,7 +15560,7 @@
         <v>461</v>
       </c>
       <c r="C61" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D61" s="24" t="s">
         <v>127</v>
@@ -15555,7 +15574,7 @@
         <v>463</v>
       </c>
       <c r="C62" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D62" s="24" t="s">
         <v>127</v>
@@ -15569,7 +15588,7 @@
         <v>465</v>
       </c>
       <c r="C63" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D63" s="24" t="s">
         <v>127</v>
@@ -15583,7 +15602,7 @@
         <v>467</v>
       </c>
       <c r="C64" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D64" s="24" t="s">
         <v>127</v>
@@ -15597,7 +15616,7 @@
         <v>469</v>
       </c>
       <c r="C65" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D65" s="24" t="s">
         <v>127</v>
@@ -15611,7 +15630,7 @@
         <v>471</v>
       </c>
       <c r="C66" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D66" s="24" t="s">
         <v>127</v>
@@ -15625,7 +15644,7 @@
         <v>473</v>
       </c>
       <c r="C67" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D67" s="24" t="s">
         <v>127</v>
@@ -15639,7 +15658,7 @@
         <v>475</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D68" s="45" t="s">
         <v>127</v>
@@ -15653,7 +15672,7 @@
         <v>477</v>
       </c>
       <c r="C69" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D69" s="45" t="s">
         <v>127</v>
@@ -15667,7 +15686,7 @@
         <v>479</v>
       </c>
       <c r="C70" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D70" s="45" t="s">
         <v>127</v>
@@ -15681,7 +15700,7 @@
         <v>481</v>
       </c>
       <c r="C71" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D71" s="45" t="s">
         <v>127</v>
@@ -15695,7 +15714,7 @@
         <v>483</v>
       </c>
       <c r="C72" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D72" s="45" t="s">
         <v>127</v>
@@ -15709,7 +15728,7 @@
         <v>485</v>
       </c>
       <c r="C73" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D73" s="45" t="s">
         <v>127</v>
@@ -15723,7 +15742,7 @@
         <v>487</v>
       </c>
       <c r="C74" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D74" s="45" t="s">
         <v>127</v>
@@ -15737,7 +15756,7 @@
         <v>362</v>
       </c>
       <c r="C75" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D75" s="24" t="s">
         <v>127</v>
@@ -15751,7 +15770,7 @@
         <v>364</v>
       </c>
       <c r="C76" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D76" s="24" t="s">
         <v>127</v>
@@ -15765,7 +15784,7 @@
         <v>366</v>
       </c>
       <c r="C77" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D77" s="24" t="s">
         <v>127</v>
@@ -15779,7 +15798,7 @@
         <v>368</v>
       </c>
       <c r="C78" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D78" s="24" t="s">
         <v>127</v>
@@ -15793,7 +15812,7 @@
         <v>370</v>
       </c>
       <c r="C79" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D79" s="24" t="s">
         <v>127</v>
@@ -15807,7 +15826,7 @@
         <v>372</v>
       </c>
       <c r="C80" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D80" s="24" t="s">
         <v>127</v>
@@ -15821,7 +15840,7 @@
         <v>374</v>
       </c>
       <c r="C81" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D81" s="24" t="s">
         <v>127</v>
@@ -15835,7 +15854,7 @@
         <v>528</v>
       </c>
       <c r="C82" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D82" s="24" t="s">
         <v>127</v>
@@ -15849,7 +15868,7 @@
         <v>529</v>
       </c>
       <c r="C83" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D83" s="24" t="s">
         <v>127</v>
@@ -15863,7 +15882,7 @@
         <v>530</v>
       </c>
       <c r="C84" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D84" s="24" t="s">
         <v>127</v>
@@ -15877,7 +15896,7 @@
         <v>531</v>
       </c>
       <c r="C85" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D85" s="24" t="s">
         <v>127</v>
@@ -15891,7 +15910,7 @@
         <v>532</v>
       </c>
       <c r="C86" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D86" s="24" t="s">
         <v>127</v>
@@ -15905,7 +15924,7 @@
         <v>533</v>
       </c>
       <c r="C87" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D87" s="24" t="s">
         <v>127</v>
@@ -15919,7 +15938,7 @@
         <v>541</v>
       </c>
       <c r="C88" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D88" s="24" t="s">
         <v>127</v>
@@ -15933,7 +15952,7 @@
         <v>542</v>
       </c>
       <c r="C89" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D89" s="24" t="s">
         <v>127</v>
@@ -15947,7 +15966,7 @@
         <v>543</v>
       </c>
       <c r="C90" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D90" s="24" t="s">
         <v>127</v>
@@ -15961,7 +15980,7 @@
         <v>544</v>
       </c>
       <c r="C91" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D91" s="24" t="s">
         <v>127</v>
@@ -15975,7 +15994,7 @@
         <v>545</v>
       </c>
       <c r="C92" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D92" s="24" t="s">
         <v>127</v>
@@ -15989,7 +16008,7 @@
         <v>546</v>
       </c>
       <c r="C93" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D93" s="24" t="s">
         <v>127</v>
@@ -16003,7 +16022,7 @@
         <v>547</v>
       </c>
       <c r="C94" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D94" s="24" t="s">
         <v>127</v>
@@ -16017,7 +16036,7 @@
         <v>500</v>
       </c>
       <c r="C95" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D95" s="24" t="s">
         <v>127</v>
@@ -16031,7 +16050,7 @@
         <v>501</v>
       </c>
       <c r="C96" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D96" s="24" t="s">
         <v>127</v>
@@ -16045,7 +16064,7 @@
         <v>502</v>
       </c>
       <c r="C97" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D97" s="24" t="s">
         <v>127</v>
@@ -16059,7 +16078,7 @@
         <v>503</v>
       </c>
       <c r="C98" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D98" s="24" t="s">
         <v>127</v>
@@ -16073,7 +16092,7 @@
         <v>504</v>
       </c>
       <c r="C99" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D99" s="24" t="s">
         <v>127</v>
@@ -16087,7 +16106,7 @@
         <v>520</v>
       </c>
       <c r="C100" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D100" s="24" t="s">
         <v>127</v>
@@ -16101,7 +16120,7 @@
         <v>521</v>
       </c>
       <c r="C101" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D101" s="24" t="s">
         <v>127</v>
@@ -16115,7 +16134,7 @@
         <v>512</v>
       </c>
       <c r="C102" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D102" s="24" t="s">
         <v>127</v>
@@ -16129,7 +16148,7 @@
         <v>513</v>
       </c>
       <c r="C103" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D103" s="24" t="s">
         <v>127</v>
@@ -16143,7 +16162,7 @@
         <v>514</v>
       </c>
       <c r="C104" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D104" s="24" t="s">
         <v>127</v>
@@ -16157,7 +16176,7 @@
         <v>515</v>
       </c>
       <c r="C105" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D105" s="24" t="s">
         <v>127</v>
@@ -16171,7 +16190,7 @@
         <v>516</v>
       </c>
       <c r="C106" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D106" s="24" t="s">
         <v>127</v>
@@ -16185,7 +16204,7 @@
         <v>517</v>
       </c>
       <c r="C107" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D107" s="24" t="s">
         <v>127</v>
@@ -16199,7 +16218,7 @@
         <v>518</v>
       </c>
       <c r="C108" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D108" s="24" t="s">
         <v>127</v>
@@ -16213,7 +16232,7 @@
         <v>638</v>
       </c>
       <c r="C109" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D109" s="14" t="s">
         <v>127</v>
@@ -16227,7 +16246,7 @@
         <v>640</v>
       </c>
       <c r="C110" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D110" s="14" t="s">
         <v>127</v>
@@ -16241,7 +16260,7 @@
         <v>642</v>
       </c>
       <c r="C111" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D111" s="14" t="s">
         <v>127</v>
@@ -16255,7 +16274,7 @@
         <v>644</v>
       </c>
       <c r="C112" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D112" s="14" t="s">
         <v>127</v>
@@ -16269,7 +16288,7 @@
         <v>646</v>
       </c>
       <c r="C113" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D113" s="14" t="s">
         <v>127</v>
@@ -16283,7 +16302,7 @@
         <v>648</v>
       </c>
       <c r="C114" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D114" s="14" t="s">
         <v>127</v>
@@ -16297,7 +16316,7 @@
         <v>650</v>
       </c>
       <c r="C115" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D115" s="14" t="s">
         <v>127</v>
@@ -16311,7 +16330,7 @@
         <v>652</v>
       </c>
       <c r="C116" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D116" s="14" t="s">
         <v>127</v>
@@ -16325,7 +16344,7 @@
         <v>654</v>
       </c>
       <c r="C117" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D117" s="14" t="s">
         <v>127</v>
@@ -16339,7 +16358,7 @@
         <v>656</v>
       </c>
       <c r="C118" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D118" s="14" t="s">
         <v>127</v>
@@ -16351,7 +16370,7 @@
       </c>
       <c r="B119" s="6"/>
       <c r="C119" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D119" s="14" t="s">
         <v>127</v>
@@ -16365,7 +16384,7 @@
         <v>659</v>
       </c>
       <c r="C120" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D120" s="14" t="s">
         <v>127</v>
@@ -16379,7 +16398,7 @@
         <v>661</v>
       </c>
       <c r="C121" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D121" s="14" t="s">
         <v>127</v>
@@ -16393,7 +16412,7 @@
         <v>663</v>
       </c>
       <c r="C122" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D122" s="14" t="s">
         <v>127</v>
@@ -16407,7 +16426,7 @@
         <v>665</v>
       </c>
       <c r="C123" s="18" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
       <c r="D123" s="14" t="s">
         <v>127</v>
@@ -16448,13 +16467,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="34" width="33.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="26.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="30.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="22.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="38" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="26.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="24.5703125" collapsed="true"/>
+    <col min="3" max="34" customWidth="true" style="3" width="33.85546875" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="3" width="26.28515625" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="3" width="30.42578125" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="3" width="22.7109375" collapsed="true"/>
+    <col min="38" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
@@ -16719,7 +16738,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F41" sqref="F41"/>
@@ -16727,15 +16746,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="37" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="33.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="27.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -16806,38 +16825,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="27.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="32.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="43.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="32.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="30.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="28.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="32.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="21.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="39.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="15.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="40.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="24" style="3" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="31.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="31.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="15.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="16.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="19.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="20.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="24" style="3" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="31.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="26.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="26.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="17.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="32" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="20.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="35.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="30.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="25.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="24.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="30.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="40.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="27.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="32.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="3" width="43.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="3" width="32.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="3" width="30.85546875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="3" width="28.85546875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="3" width="32.140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="3" width="21.28515625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="3" width="39.7109375" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="3" width="15.5703125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="3" width="40.85546875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="3" width="24.0" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="3" width="31.140625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="3" width="31.28515625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="3" width="15.140625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="3" width="16.7109375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="3" width="19.42578125" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="3" width="20.7109375" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="3" width="24.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="3" width="31.42578125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="3" width="26.7109375" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="3" width="26.42578125" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="3" width="17.5703125" collapsed="true"/>
+    <col min="32" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -17139,14 +17158,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="30.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -17228,35 +17247,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="31.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="25" style="3" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="14" max="15" width="9.140625" style="3" collapsed="1"/>
-    <col min="16" max="16" width="17.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="26.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="16.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="20" style="3" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="13.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="22.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="21.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="43.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9.140625" style="3" collapsed="1"/>
-    <col min="25" max="25" width="18.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="20" style="3" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="23.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="27" style="3" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="23.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="30" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="24.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="37.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="26.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="18.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="21.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="19.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="21.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="30.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="31.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="3" width="29.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="3" width="28.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="3" width="25.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="3" width="21.140625" collapsed="true"/>
+    <col min="14" max="15" style="3" width="9.140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="3" width="17.42578125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="3" width="26.85546875" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="3" width="16.5703125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="3" width="20.0" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="3" width="13.5703125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="3" width="22.140625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="3" width="21.28515625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="3" width="43.28515625" collapsed="true"/>
+    <col min="24" max="24" style="3" width="9.140625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="3" width="20.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="3" width="23.42578125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="3" width="27.0" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="3" width="23.85546875" collapsed="true"/>
+    <col min="30" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">

--- a/AzentioAutomationFramework_AnandhULS/TestData/ulsTestData.xlsx
+++ b/AzentioAutomationFramework_AnandhULS/TestData/ulsTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" firstSheet="40" activeTab="45"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9362" uniqueCount="674">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3306" uniqueCount="669">
   <si>
     <t>UserName</t>
   </si>
@@ -1960,12 +1960,6 @@
     <t>State Bank of India Karnataka Bangalore</t>
   </si>
   <si>
-    <t>4223</t>
-  </si>
-  <si>
-    <t>4225</t>
-  </si>
-  <si>
     <t>userType07</t>
   </si>
   <si>
@@ -2065,29 +2059,19 @@
     <t>DS01_AT_AL_FD_APPDATAENTRY_05</t>
   </si>
   <si>
-    <t>4573</t>
-  </si>
-  <si>
-    <t>4575</t>
-  </si>
-  <si>
-    <t>4607</t>
-  </si>
-  <si>
-    <t>4609</t>
-  </si>
-  <si>
-    <t>4633</t>
-  </si>
-  <si>
-    <t>4635</t>
+    <t>4668</t>
+  </si>
+  <si>
+    <t>4670</t>
+  </si>
+  <si>
+    <t>userType08</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -2330,7 +2314,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2387,6 +2371,12 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="2"/>
@@ -2683,18 +2673,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O18" sqref="O18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="19.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="16.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="15.140625" collapsed="true"/>
-    <col min="4" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="19.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="16.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -2776,12 +2766,23 @@
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="1" t="s">
-        <v>635</v>
-      </c>
-      <c r="B8" s="46" t="s">
-        <v>636</v>
+        <v>633</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>634</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="49" t="s">
+        <v>668</v>
+      </c>
+      <c r="B9" s="49">
+        <v>3102</v>
+      </c>
+      <c r="C9" s="48" t="s">
         <v>6</v>
       </c>
     </row>
@@ -2794,6 +2795,7 @@
     <hyperlink ref="C6" r:id="rId5"/>
     <hyperlink ref="C7" r:id="rId6"/>
     <hyperlink ref="C8" r:id="rId7"/>
+    <hyperlink ref="C9" r:id="rId8"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2809,14 +2811,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="23.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="32.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="31.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="1" max="1" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="34.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -2920,18 +2922,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="23.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="30.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="26.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="24.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="29.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="25.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="36.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="15.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="22.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="3" width="17.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="3" width="19.140625" collapsed="true"/>
-    <col min="12" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="23" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="24.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="29.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="36.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="22.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="17" style="3" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="19.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3124,13 +3126,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="4" max="5" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="1" max="1" width="24.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="27.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="27.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3245,31 +3247,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="26.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="11.42578125" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="24.7109375" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="13.5703125" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="1" max="1" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="11.42578125" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="19.42578125" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="25" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="13.5703125" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="18" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -3666,14 +3668,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="27.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="38.5703125" collapsed="true"/>
+    <col min="1" max="1" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3788,21 +3790,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="21.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="30.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="27.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="25.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="28.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="31.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="33.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="29.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="24.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="3" width="20.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="3" width="26.7109375" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="3" width="15.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="3" width="28.28515625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="3" width="22.85546875" collapsed="true"/>
-    <col min="15" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="21.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="28.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="29" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="24.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="28.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="22.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="15" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -4021,14 +4023,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="30.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="29.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="32.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="1" max="1" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="30.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="26.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4132,40 +4134,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="36.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="39.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="24.859375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="27.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="21.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="15.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="15.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="15.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="26.0" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="44.85546875" collapsed="true"/>
-    <col min="11" max="12" customWidth="true" style="3" width="31.5703125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="3" width="28.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="3" width="29.28515625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="3" width="17.28515625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="3" width="34.28515625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="3" width="22.140625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="3" width="27.0" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="3" width="20.140625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="3" width="28.42578125" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="3" width="30.5703125" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="3" width="15.140625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="3" width="22.7109375" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="3" width="18.7109375" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="3" width="15.5703125" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="3" width="19.85546875" collapsed="true"/>
-    <col min="28" max="29" customWidth="true" style="3" width="20.42578125" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" style="3" width="16.0" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" style="3" width="19.42578125" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" style="3" width="22.140625" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" style="3" width="19.140625" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" style="3" width="19.0" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" style="3" width="20.0" collapsed="true"/>
-    <col min="36" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="36.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="26" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="44.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="12" width="31.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="28" style="3" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="29.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="17.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="34.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="22.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27" style="3" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="20.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="28.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="30.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="15.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="22.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="14.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="18.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="15.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="19.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="29" width="20.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="16" style="3" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="19.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="22.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="19.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="19" style="3" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="20" style="3" customWidth="1" collapsed="1"/>
+    <col min="36" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -4559,7 +4561,7 @@
         <v>313</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>141</v>
@@ -4794,14 +4796,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="28.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="40.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="12.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="1" max="1" width="28.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="12.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="27" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4927,31 +4929,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="40.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="9" max="10" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="10.85546875" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="20.28515625" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="28.42578125" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="40.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="10" width="22.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="10.85546875" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="20.28515625" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="28.42578125" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="25" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="32.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -5384,21 +5386,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="30.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="32.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="13.7109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="38.0" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="16.28515625" collapsed="true"/>
+    <col min="1" max="1" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="18" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="30.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="32.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="13.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="38" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1">
@@ -5616,14 +5618,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="42.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="27.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="1" max="1" width="39.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="28.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -5738,17 +5740,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="29.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="29.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="1" max="1" width="26" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="29.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="29.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="27.140625" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -5969,14 +5971,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.85546875" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="27.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="28.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="27.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="1" max="1" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="28.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="27.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -6111,33 +6113,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="36.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="14.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="30.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="16.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="11.5703125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="15.140625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="9.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="14.85546875" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="17.42578125" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="25.140625" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="16.0" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="20.7109375" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="1" max="1" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="36" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="27.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="16.85546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="11.5703125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="15.140625" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="9.7109375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="16" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="14.85546875" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="17.42578125" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="25.140625" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="16" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="20.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -6578,14 +6580,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="28.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="27.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="1" max="1" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="28.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="29.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -6723,13 +6725,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="21.42578125" collapsed="true"/>
-    <col min="4" max="5" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="1" max="1" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="5" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.7109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -6855,33 +6857,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="32.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="33.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="28.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="31.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="30.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="29.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="34.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="38.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="39.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="3" width="35.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="3" width="28.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="3" width="32.5703125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="3" width="33.140625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="3" width="29.140625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="3" width="30.28515625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="3" width="34.0" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="3" width="29.5703125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="3" width="27.7109375" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="3" width="20.7109375" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="3" width="36.28515625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="3" width="28.5703125" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="3" width="39.5703125" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="3" width="26.7109375" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="3" width="21.28515625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="3" width="23.140625" collapsed="true"/>
-    <col min="27" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="32.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="39.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="35.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="28.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="32.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="33.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="29.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="30.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="34" style="3" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="29.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="20.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="36.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="28.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="39.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="26.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="21.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="23.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="27" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -7278,22 +7280,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="24.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="15.85546875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="24.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="1" max="1" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="24" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="27" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="15.85546875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="21.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -7580,14 +7582,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="25.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="27.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="27.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="1" max="1" width="25.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="27" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -7713,33 +7715,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="32.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="33.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="28.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="31.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="30.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="29.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="34.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="38.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="39.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="3" width="35.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="3" width="28.85546875" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="3" width="32.5703125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="3" width="33.140625" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="3" width="29.140625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="3" width="30.28515625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="3" width="34.0" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="3" width="29.5703125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="3" width="27.7109375" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="3" width="20.7109375" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="3" width="36.28515625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="3" width="28.5703125" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="3" width="39.5703125" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="3" width="26.7109375" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="3" width="21.28515625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="3" width="23.140625" collapsed="true"/>
-    <col min="27" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="32.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="33" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="28.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="31.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="34.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="38.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="39.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="35.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="28.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="32.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="33.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="29.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="30.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="34" style="3" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="29.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="27.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="20.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="36.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="28.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="39.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="26.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="21.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="23.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="27" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -8136,34 +8138,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="17.7109375" collapsed="true"/>
-    <col min="2" max="3" customWidth="true" style="3" width="26.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="21.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="20.42578125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="32.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="23.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="25.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="27.140625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="3" width="26.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="3" width="18.7109375" collapsed="true"/>
-    <col min="12" max="12" style="3" width="9.140625" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="3" width="29.5703125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="3" width="14.85546875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="3" width="19.42578125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="3" width="20.85546875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="3" width="30.7109375" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="3" width="21.85546875" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="3" width="41.5703125" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="3" width="24.42578125" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="3" width="29.5703125" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="3" width="24.140625" collapsed="true"/>
-    <col min="23" max="24" customWidth="true" style="3" width="26.85546875" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="3" width="26.42578125" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="3" width="22.5703125" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="3" width="17.85546875" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="3" width="16.140625" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="3" width="20.42578125" collapsed="true"/>
-    <col min="30" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="17.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="3" width="26" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="20.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="25" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="27.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="26.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="9.140625" style="3" collapsed="1"/>
+    <col min="13" max="13" width="29.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="14.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="19.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="20.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="30.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="21.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="41.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="24.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="29.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="24.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="23" max="24" width="26.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="26.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="22.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="17.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="16.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="20.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="30" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -8565,14 +8567,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="33.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="35.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="1" max="1" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="35.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="29.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -8733,42 +8735,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="24.859375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="21.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="25.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="30.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="62.5703125" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="35.140625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="16.42578125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="35.5703125" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="30.42578125" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="18.85546875" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="17.5703125" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="17.0" collapsed="true"/>
-    <col min="32" max="32" customWidth="true" width="22.42578125" collapsed="true"/>
-    <col min="33" max="33" customWidth="true" width="22.28515625" collapsed="true"/>
-    <col min="34" max="34" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="21.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="29.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="30.28515625" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="62.5703125" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="34.42578125" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="35.140625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="35.5703125" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="30.42578125" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="23" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="24.42578125" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="17.5703125" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="17" customWidth="1" collapsed="1"/>
+    <col min="32" max="32" width="22.42578125" customWidth="1" collapsed="1"/>
+    <col min="33" max="33" width="22.28515625" customWidth="1" collapsed="1"/>
+    <col min="34" max="34" width="18" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="18.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -9185,7 +9187,7 @@
         <v>370</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>141</v>
@@ -9433,34 +9435,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="18.5703125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="15.28515625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="9.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="13.42578125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="20.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="18.0" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="14.28515625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="19.140625" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="16.140625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="18.42578125" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="17.7109375" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="33.5703125" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="13.28515625" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="19.28515625" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" width="23.7109375" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="1" max="1" width="39.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="18.5703125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="15.28515625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="9.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="13.42578125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="20" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="18" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="21.5703125" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="14.28515625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="16.140625" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="18.42578125" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="21" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="17.7109375" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="13.28515625" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="19.28515625" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="26.5703125" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="23.7109375" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="23.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -9893,35 +9895,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="33.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="41.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="33.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="19.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="23.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="14.7109375" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="21.0" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="21.5703125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="25.85546875" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" width="25.7109375" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" width="19.0" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" width="29.42578125" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" width="21.140625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" width="14.140625" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" width="15.5703125" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="1" max="1" width="33.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="41.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="19.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="23.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.7109375" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="21" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="22" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.5703125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="25.85546875" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="24.42578125" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="19" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="29.42578125" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="21.140625" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="23" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="14.140625" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="15.5703125" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="18.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -10358,22 +10360,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="39.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="17.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="15.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="24.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="19.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.0" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="17.85546875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" width="18.7109375" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="18.140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="1" max="1" width="28.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="39.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="15.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="27" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="24.7109375" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="19.5703125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="17.85546875" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="22.5703125" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="18.7109375" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="20.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -10660,17 +10662,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="24.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="22.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="23.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="30.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="19.85546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="1" max="1" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="24.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="22" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="30.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="23.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -10890,15 +10892,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="26.140625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="35.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="30.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="36.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="37.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="32.42578125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="1" max="1" width="25" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="35.28515625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="30.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="37.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="24" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -11013,14 +11015,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="34.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="36.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="29.5703125" collapsed="true"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="34.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="36.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="35" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="29.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -11105,23 +11107,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="29.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="35.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="23.5703125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="25.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="28.42578125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="23.85546875" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" width="29.5703125" collapsed="true"/>
-    <col min="13" max="14" customWidth="true" width="36.85546875" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" width="30.140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" width="28.85546875" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="1" max="1" width="29.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.5703125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="25" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="28.42578125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="23.85546875" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="29" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="29.5703125" customWidth="1" collapsed="1"/>
+    <col min="13" max="14" width="36.85546875" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="30.140625" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="28.85546875" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="32.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -11278,14 +11280,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="26.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="20.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="30.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="36.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="33.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="1" max="1" width="27.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="26.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="33.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="41" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="33.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -11414,13 +11416,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="24.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="17.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="32.85546875" collapsed="true"/>
-    <col min="5" max="6" customWidth="true" width="28.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="32.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="1" max="1" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="32.85546875" customWidth="1" collapsed="1"/>
+    <col min="5" max="6" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="27.140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -11535,14 +11537,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="32.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="42.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="42.140625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="30.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="29.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="39.28515625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="1" max="1" width="32.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="42" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="42.140625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30.28515625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="39.28515625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="36.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -11946,14 +11948,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="36.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="47.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="31.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="34.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="43.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="32.42578125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="1" max="1" width="36.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="47.42578125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="31.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="34.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="43" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.85546875" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -12534,14 +12536,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="47.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="19.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="27.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="28.140625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="32.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="47.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="27.7109375" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="28.140625" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="32.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="28.28515625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -12997,15 +12999,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="69.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="20.42578125" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="32.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="42.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="41.0" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="39.5703125" collapsed="true"/>
+    <col min="1" max="1" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="69.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="32.85546875" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="42.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="41" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="39.5703125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -14555,15 +14557,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.28515625" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="18.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="28.5703125" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="1" max="1" width="27" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31.28515625" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="28.5703125" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -14653,9 +14655,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
+    <col min="1" max="1" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -14700,16 +14702,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+    <sheetView topLeftCell="A91" workbookViewId="0">
       <selection activeCell="J104" sqref="J104"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.1171875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="1" max="1" width="34.7109375" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="38.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -16226,10 +16228,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="6" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="B109" s="6" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="C109" s="18" t="s">
         <v>604</v>
@@ -16240,10 +16242,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="6" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="C110" s="18" t="s">
         <v>604</v>
@@ -16254,10 +16256,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" s="6" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="C111" s="18" t="s">
         <v>604</v>
@@ -16268,10 +16270,10 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" s="6" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="C112" s="18" t="s">
         <v>604</v>
@@ -16282,10 +16284,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="6" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="C113" s="18" t="s">
         <v>604</v>
@@ -16296,10 +16298,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" s="6" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="C114" s="18" t="s">
         <v>604</v>
@@ -16310,10 +16312,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" s="6" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="C115" s="18" t="s">
         <v>604</v>
@@ -16324,10 +16326,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" s="6" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="B116" s="6" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="C116" s="18" t="s">
         <v>604</v>
@@ -16338,10 +16340,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="6" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="C117" s="18" t="s">
         <v>604</v>
@@ -16352,10 +16354,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="6" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="C118" s="18" t="s">
         <v>604</v>
@@ -16366,7 +16368,7 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="6" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="B119" s="6"/>
       <c r="C119" s="18" t="s">
@@ -16378,10 +16380,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" s="47" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="B120" s="47" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="C120" s="18" t="s">
         <v>604</v>
@@ -16392,10 +16394,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" s="47" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="B121" s="47" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="C121" s="18" t="s">
         <v>604</v>
@@ -16406,10 +16408,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" s="47" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="B122" s="47" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="C122" s="18" t="s">
         <v>604</v>
@@ -16420,10 +16422,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" s="47" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="B123" s="47" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="C123" s="18" t="s">
         <v>604</v>
@@ -16434,10 +16436,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" s="47" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="B124" s="47" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="C124" s="18" t="s">
         <v>606</v>
@@ -16467,13 +16469,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="26.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="24.5703125" collapsed="true"/>
-    <col min="3" max="34" customWidth="true" style="3" width="33.85546875" collapsed="true"/>
-    <col min="35" max="35" customWidth="true" style="3" width="26.28515625" collapsed="true"/>
-    <col min="36" max="36" customWidth="true" style="3" width="30.42578125" collapsed="true"/>
-    <col min="37" max="37" customWidth="true" style="3" width="22.7109375" collapsed="true"/>
-    <col min="38" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="26.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="34" width="33.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="35" max="35" width="26.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="36" max="36" width="30.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="37" max="37" width="22.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="38" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
@@ -16738,7 +16740,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F41" sqref="F41"/>
@@ -16746,15 +16748,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="21.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="22.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="22.5703125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="37.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="30.7109375" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="26.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="33.140625" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="1" max="1" width="21.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="22.7109375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="22.5703125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="37" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="26.42578125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="33.140625" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="27.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -16825,38 +16827,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="20.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="35.5703125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="30.85546875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="25.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="24.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="30.0" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="40.7109375" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="27.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="32.5703125" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="3" width="43.28515625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="3" width="32.140625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="3" width="30.85546875" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="3" width="28.85546875" collapsed="true"/>
-    <col min="14" max="14" customWidth="true" style="3" width="32.140625" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="3" width="21.28515625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="3" width="39.7109375" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="3" width="15.5703125" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="3" width="40.85546875" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="3" width="24.0" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="3" width="31.140625" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="3" width="31.28515625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="3" width="15.140625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="3" width="16.7109375" collapsed="true"/>
-    <col min="24" max="24" customWidth="true" style="3" width="19.42578125" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="3" width="20.7109375" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="3" width="24.0" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="3" width="31.42578125" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="3" width="26.7109375" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
-    <col min="30" max="30" customWidth="true" style="3" width="26.42578125" collapsed="true"/>
-    <col min="31" max="31" customWidth="true" style="3" width="17.5703125" collapsed="true"/>
-    <col min="32" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="20.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="35.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="30.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="30" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="40.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="27.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="32.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="43.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="32.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="30.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="28.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="32.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="21.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="39.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="15.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="40.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="24" style="3" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="31.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="31.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="15.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="16.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="19.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="25" max="25" width="20.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="24" style="3" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="31.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="26.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="30" max="30" width="26.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="31" max="31" width="17.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="32" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -17158,14 +17160,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" width="24.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="31.0" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="29.28515625" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" width="27.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="29.7109375" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" width="33.140625" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="1" max="1" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="31" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="27" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="29.7109375" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="33.140625" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -17247,35 +17249,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="3" width="24.140625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="37.7109375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="26.42578125" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="18.85546875" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="21.0" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="19.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="3" width="21.85546875" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="3" width="30.7109375" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="31.7109375" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="3" width="29.140625" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="3" width="28.28515625" collapsed="true"/>
-    <col min="12" max="12" customWidth="true" style="3" width="25.0" collapsed="true"/>
-    <col min="13" max="13" customWidth="true" style="3" width="21.140625" collapsed="true"/>
-    <col min="14" max="15" style="3" width="9.140625" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="3" width="17.42578125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="3" width="26.85546875" collapsed="true"/>
-    <col min="18" max="18" customWidth="true" style="3" width="16.5703125" collapsed="true"/>
-    <col min="19" max="19" customWidth="true" style="3" width="20.0" collapsed="true"/>
-    <col min="20" max="20" customWidth="true" style="3" width="13.5703125" collapsed="true"/>
-    <col min="21" max="21" customWidth="true" style="3" width="22.140625" collapsed="true"/>
-    <col min="22" max="22" customWidth="true" style="3" width="21.28515625" collapsed="true"/>
-    <col min="23" max="23" customWidth="true" style="3" width="43.28515625" collapsed="true"/>
-    <col min="24" max="24" style="3" width="9.140625" collapsed="true"/>
-    <col min="25" max="25" customWidth="true" style="3" width="18.140625" collapsed="true"/>
-    <col min="26" max="26" customWidth="true" style="3" width="20.0" collapsed="true"/>
-    <col min="27" max="27" customWidth="true" style="3" width="23.42578125" collapsed="true"/>
-    <col min="28" max="28" customWidth="true" style="3" width="27.0" collapsed="true"/>
-    <col min="29" max="29" customWidth="true" style="3" width="23.85546875" collapsed="true"/>
-    <col min="30" max="16384" style="3" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="24.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="37.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="26.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="21" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="19.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="21.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="30.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="31.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="29.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="28.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="25" style="3" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="21.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="14" max="15" width="9.140625" style="3" collapsed="1"/>
+    <col min="16" max="16" width="17.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="26.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="18" max="18" width="16.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="19" max="19" width="20" style="3" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="13.5703125" style="3" customWidth="1" collapsed="1"/>
+    <col min="21" max="21" width="22.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="22" max="22" width="21.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="23" max="23" width="43.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="24" max="24" width="9.140625" style="3" collapsed="1"/>
+    <col min="25" max="25" width="18.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="26" max="26" width="20" style="3" customWidth="1" collapsed="1"/>
+    <col min="27" max="27" width="23.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="28" max="28" width="27" style="3" customWidth="1" collapsed="1"/>
+    <col min="29" max="29" width="23.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="30" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">

--- a/AzentioAutomationFramework_AnandhULS/TestData/ulsTestData.xlsx
+++ b/AzentioAutomationFramework_AnandhULS/TestData/ulsTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" firstSheet="41" activeTab="41"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -46,20 +46,22 @@
     <sheet name="TW_offering_ExeTrack" sheetId="42" r:id="rId37"/>
     <sheet name="Murabaha_BeneficiaryTestData" sheetId="43" r:id="rId38"/>
     <sheet name="Muraba_beneficiaryExeSheet" sheetId="44" r:id="rId39"/>
-    <sheet name="Ijarah_ExecutionTracker" sheetId="26" r:id="rId40"/>
-    <sheet name="Murabaha_ExecutionTracker" sheetId="27" r:id="rId41"/>
-    <sheet name="Tawruqq_ExecutionTracker" sheetId="28" r:id="rId42"/>
-    <sheet name="NewAppExecution" sheetId="41" r:id="rId43"/>
-    <sheet name="RunnerTest" sheetId="45" r:id="rId44"/>
-    <sheet name="MurabahaPurchaseOrder_TestData" sheetId="46" r:id="rId45"/>
-    <sheet name="ULSExecution" sheetId="47" r:id="rId46"/>
+    <sheet name="Ijarah_FacilityInfo_DE_TestData" sheetId="48" r:id="rId40"/>
+    <sheet name="Ijarah_ExecutionTracker" sheetId="26" r:id="rId41"/>
+    <sheet name="Murabaha_AddressDetails_DE_TD" sheetId="49" r:id="rId42"/>
+    <sheet name="Murabaha_ExecutionTracker" sheetId="27" r:id="rId43"/>
+    <sheet name="Tawruqq_ExecutionTracker" sheetId="28" r:id="rId44"/>
+    <sheet name="NewAppExecution" sheetId="41" r:id="rId45"/>
+    <sheet name="RunnerTest" sheetId="45" r:id="rId46"/>
+    <sheet name="MurabahaPurchaseOrder_TestData" sheetId="46" r:id="rId47"/>
+    <sheet name="ULSExecution" sheetId="47" r:id="rId48"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3306" uniqueCount="669">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="687">
   <si>
     <t>UserName</t>
   </si>
@@ -2066,6 +2068,60 @@
   </si>
   <si>
     <t>userType08</t>
+  </si>
+  <si>
+    <t>Ijarah App Data entry</t>
+  </si>
+  <si>
+    <t>2060</t>
+  </si>
+  <si>
+    <t>userType09</t>
+  </si>
+  <si>
+    <t>AT_FAC_DET_08</t>
+  </si>
+  <si>
+    <t>DS01_AT_FAC_DET_08</t>
+  </si>
+  <si>
+    <t>IJALS</t>
+  </si>
+  <si>
+    <t>IJASL</t>
+  </si>
+  <si>
+    <t>AT_FAC_DET_09</t>
+  </si>
+  <si>
+    <t>DS01_AT_FAC_DET_09</t>
+  </si>
+  <si>
+    <t>Dealer 1</t>
+  </si>
+  <si>
+    <t>asset_dealer</t>
+  </si>
+  <si>
+    <t>azentio098@gmail.com</t>
+  </si>
+  <si>
+    <t>AT_MU_ADE_IAD_04</t>
+  </si>
+  <si>
+    <t>DS01_AT_MU_ADE_IAD_04</t>
+  </si>
+  <si>
+    <t>userType10</t>
+  </si>
+  <si>
+    <t>3032</t>
+  </si>
+  <si>
+    <t>Murabah data entry</t>
+  </si>
+  <si>
+    <t>9654427845</t>
   </si>
 </sst>
 </file>
@@ -2206,7 +2262,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -2305,6 +2361,19 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2314,7 +2383,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2377,6 +2446,14 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="2"/>
@@ -2673,10 +2750,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O18" sqref="O18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2684,10 +2761,11 @@
     <col min="1" max="1" width="19.28515625" style="3" customWidth="1" collapsed="1"/>
     <col min="2" max="2" width="16.42578125" style="3" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="15.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="4" max="4" width="25.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="16384" width="9.140625" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:4">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -2698,7 +2776,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:4">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -2709,7 +2787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:4">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -2720,7 +2798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:4">
       <c r="A4" s="1" t="s">
         <v>548</v>
       </c>
@@ -2731,7 +2809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:4">
       <c r="A5" s="1" t="s">
         <v>565</v>
       </c>
@@ -2742,7 +2820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
         <v>600</v>
       </c>
@@ -2753,7 +2831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
         <v>607</v>
       </c>
@@ -2764,7 +2842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:4">
       <c r="A8" s="1" t="s">
         <v>633</v>
       </c>
@@ -2775,7 +2853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:4">
       <c r="A9" s="49" t="s">
         <v>668</v>
       </c>
@@ -2784,6 +2862,45 @@
       </c>
       <c r="C9" s="48" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="49" t="s">
+        <v>668</v>
+      </c>
+      <c r="B10" s="49">
+        <v>3102</v>
+      </c>
+      <c r="C10" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="50" t="s">
+        <v>671</v>
+      </c>
+      <c r="B11" s="51" t="s">
+        <v>670</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="49" t="s">
+        <v>683</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C12" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="53" t="s">
+        <v>685</v>
       </c>
     </row>
   </sheetData>
@@ -2796,6 +2913,9 @@
     <hyperlink ref="C7" r:id="rId6"/>
     <hyperlink ref="C8" r:id="rId7"/>
     <hyperlink ref="C9" r:id="rId8"/>
+    <hyperlink ref="C10" r:id="rId9"/>
+    <hyperlink ref="C11" r:id="rId10"/>
+    <hyperlink ref="C12" r:id="rId11"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -11101,8 +11221,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M17" sqref="M17"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11274,9 +11394,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -11529,7 +11647,56 @@
 
 <file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H33"/>
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I38" sqref="I38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="24.5703125" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="19.85546875" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="25.42578125" customWidth="1" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="26" t="s">
+        <v>672</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>673</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>674</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>675</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B41" sqref="B41"/>
@@ -11928,9 +12095,31 @@
         <v>127</v>
       </c>
     </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="26" t="s">
+        <v>672</v>
+      </c>
+      <c r="B34" s="26" t="s">
+        <v>673</v>
+      </c>
+      <c r="C34" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="26" t="s">
+        <v>676</v>
+      </c>
+      <c r="B35" s="26" t="s">
+        <v>677</v>
+      </c>
+      <c r="C35" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C33">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C35">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -11938,12 +12127,77 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet41.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="20.85546875" customWidth="1"/>
+    <col min="2" max="2" width="24.85546875" customWidth="1"/>
+    <col min="3" max="3" width="20.140625" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" customWidth="1"/>
+    <col min="5" max="6" width="30.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>679</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="6" t="s">
+        <v>681</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>678</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>311</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>680</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>686</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E2" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12515,9 +12769,20 @@
         <v>127</v>
       </c>
     </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="B51" s="15" t="s">
+        <v>682</v>
+      </c>
+      <c r="C51" s="38" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C50">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12526,7 +12791,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet42.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H38"/>
   <sheetViews>
@@ -12989,7 +13254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I108"/>
   <sheetViews>
@@ -14547,7 +14812,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -14645,7 +14910,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -14698,7 +14963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:D124"/>
   <sheetViews>

--- a/AzentioAutomationFramework_AnandhULS/TestData/ulsTestData.xlsx
+++ b/AzentioAutomationFramework_AnandhULS/TestData/ulsTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" firstSheet="41" activeTab="41"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3345" uniqueCount="687">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3353" uniqueCount="692">
   <si>
     <t>UserName</t>
   </si>
@@ -2122,6 +2122,21 @@
   </si>
   <si>
     <t>9654427845</t>
+  </si>
+  <si>
+    <t>userType11</t>
+  </si>
+  <si>
+    <t>ijarah_data_check</t>
+  </si>
+  <si>
+    <t>userType12</t>
+  </si>
+  <si>
+    <t>0285</t>
+  </si>
+  <si>
+    <t>Murabaha data check</t>
   </si>
 </sst>
 </file>
@@ -2750,10 +2765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D12"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2903,6 +2918,34 @@
         <v>685</v>
       </c>
     </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="49" t="s">
+        <v>687</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>684</v>
+      </c>
+      <c r="C13" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="49" t="s">
+        <v>689</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C14" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>691</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="C3" r:id="rId1"/>
@@ -2916,6 +2959,8 @@
     <hyperlink ref="C10" r:id="rId9"/>
     <hyperlink ref="C11" r:id="rId10"/>
     <hyperlink ref="C12" r:id="rId11"/>
+    <hyperlink ref="C13" r:id="rId12"/>
+    <hyperlink ref="C14" r:id="rId13"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -12131,8 +12176,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/AzentioAutomationFramework_AnandhULS/TestData/ulsTestData.xlsx
+++ b/AzentioAutomationFramework_AnandhULS/TestData/ulsTestData.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3353" uniqueCount="692">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3355" uniqueCount="694">
   <si>
     <t>UserName</t>
   </si>
@@ -2137,12 +2137,19 @@
   </si>
   <si>
     <t>Murabaha data check</t>
+  </si>
+  <si>
+    <t>4932</t>
+  </si>
+  <si>
+    <t>4934</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="7">
     <font>
       <sz val="11"/>
@@ -2773,11 +2780,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="19.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="16.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="19.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="16.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="15.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="25.85546875" collapsed="true"/>
+    <col min="5" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -2976,14 +2983,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="23.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="34.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="32.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="34.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3087,18 +3094,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="24.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="29.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="36.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="17" style="3" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="19.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="12" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="23.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="30.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="26.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="24.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="29.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="25.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="36.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="15.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="22.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="3" width="17.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="3" width="19.140625" collapsed="true"/>
+    <col min="12" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -3291,13 +3298,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="27.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="27.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="4" max="5" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="27.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3412,31 +3419,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="32" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.5703125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="26.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="11.42578125" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19.42578125" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="25" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="13.5703125" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="18" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="32.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="11.42578125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="13.5703125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="18.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -3833,14 +3840,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="38.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -3955,21 +3962,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="28.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="29" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="24.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="28.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="22.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="15" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="21.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="30.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="27.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="25.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="28.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="31.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="33.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="29.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="24.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="3" width="20.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="3" width="26.7109375" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="3" width="15.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="3" width="28.28515625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="3" width="22.85546875" collapsed="true"/>
+    <col min="15" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14">
@@ -4188,14 +4195,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="30.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="26.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="26.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -4299,40 +4306,40 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="26" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="44.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="12" width="31.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="28" style="3" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="29.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="17.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="34.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="22.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="27" style="3" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="20.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="28.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="30.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="15.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="22.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="14.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="18.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="15.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="19.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="28" max="29" width="20.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="16" style="3" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="19.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="22.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="19.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="19" style="3" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="20" style="3" customWidth="1" collapsed="1"/>
-    <col min="36" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="36.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="39.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" style="3" width="24.859375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="27.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="21.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="15.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="15.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="15.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="26.0" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="44.85546875" collapsed="true"/>
+    <col min="11" max="12" customWidth="true" style="3" width="31.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="3" width="28.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="3" width="29.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="3" width="17.28515625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="3" width="34.28515625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="3" width="22.140625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="3" width="27.0" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="3" width="20.140625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="3" width="28.42578125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="3" width="30.5703125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="3" width="15.140625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="3" width="22.7109375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="3" width="14.28515625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="3" width="18.7109375" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="3" width="15.5703125" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="3" width="19.85546875" collapsed="true"/>
+    <col min="28" max="29" customWidth="true" style="3" width="20.42578125" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="3" width="16.0" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="3" width="19.42578125" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" style="3" width="22.140625" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" style="3" width="19.140625" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" style="3" width="19.0" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="3" width="20.0" collapsed="true"/>
+    <col min="36" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35">
@@ -4726,7 +4733,7 @@
         <v>313</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>666</v>
+        <v>692</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>141</v>
@@ -4961,14 +4968,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="12.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="26.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="27" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="12.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="27.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -5094,31 +5101,31 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="40.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="19.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="10" width="22.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="10.85546875" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="20.28515625" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="28.42578125" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="25" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="32.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="40.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="9" max="10" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="10.85546875" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="20.28515625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="32.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -5551,21 +5558,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="18" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="10.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="30.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="32.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="13.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="38" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="16.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="10.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="32.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="13.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="38.0" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="16.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="15" customHeight="1">
@@ -5783,14 +5790,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="42.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="27.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="28.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -5905,17 +5912,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="29.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="27.140625" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="24" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="29.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="24.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -6136,14 +6143,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="28.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="27.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -6278,33 +6285,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="36" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="27.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="16.85546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="11.5703125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="15.140625" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="9.7109375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="16" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="14.85546875" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="17.42578125" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="25.140625" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="16" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="24.140625" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="20.7109375" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="19.5703125" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="20.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="16.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="11.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="15.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="9.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="14.85546875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="17.42578125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="25.140625" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="16.0" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="20.7109375" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="20.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -6745,14 +6752,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="28.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="29.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -6890,13 +6897,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="21.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="5" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.7109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="21.42578125" collapsed="true"/>
+    <col min="4" max="5" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="30.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -7022,33 +7029,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="39.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="35.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="32.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="33.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="29.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="30.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="34" style="3" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="29.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="27.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="20.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="36.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="28.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="39.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="26.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="21.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="23.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="27" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="32.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="33.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="28.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="31.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="30.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="29.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="34.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="38.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="39.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="3" width="35.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="3" width="28.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="3" width="32.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="3" width="33.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="3" width="29.140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="3" width="30.28515625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="3" width="34.0" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="3" width="29.5703125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="3" width="27.7109375" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="3" width="20.7109375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="3" width="36.28515625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="3" width="28.5703125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="3" width="39.5703125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="3" width="26.7109375" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="3" width="21.28515625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="3" width="23.140625" collapsed="true"/>
+    <col min="27" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -7445,22 +7452,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="12.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="24" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="27" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="15.85546875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="21.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="12.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="24.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="15.85546875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="21.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -7747,14 +7754,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="27" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="25.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="27.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="27.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -7880,33 +7887,33 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="33" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="28.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="31.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="34.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="38.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="39.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="35.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="32.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="33.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="29.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="30.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="34" style="3" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="29.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="27.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="20.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="36.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="28.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="39.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="26.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="21.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="23.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="27" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="32.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="33.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="28.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="31.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="30.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="29.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="34.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="38.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="39.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="3" width="35.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="3" width="28.85546875" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="3" width="32.5703125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="3" width="33.140625" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="3" width="29.140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="3" width="30.28515625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="3" width="34.0" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="3" width="29.5703125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="3" width="27.7109375" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="3" width="20.7109375" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="3" width="36.28515625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="3" width="28.5703125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="3" width="39.5703125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="3" width="26.7109375" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="3" width="21.28515625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="3" width="23.140625" collapsed="true"/>
+    <col min="27" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26">
@@ -8303,34 +8310,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="17.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="3" width="26" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="20.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="25" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="27.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="26.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="9.140625" style="3" collapsed="1"/>
-    <col min="13" max="13" width="29.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="14.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="19.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="20.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="30.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="21.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="41.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="24.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="29.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="24.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="23" max="24" width="26.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="26.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="22.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="17.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="16.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="20.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="30" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="17.7109375" collapsed="true"/>
+    <col min="2" max="3" customWidth="true" style="3" width="26.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="21.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="20.42578125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="32.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="23.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="25.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="27.140625" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="3" width="26.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="3" width="18.7109375" collapsed="true"/>
+    <col min="12" max="12" style="3" width="9.140625" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="3" width="29.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="3" width="14.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="3" width="19.42578125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="3" width="20.85546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="3" width="30.7109375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="3" width="21.85546875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="3" width="41.5703125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="3" width="24.42578125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="3" width="29.5703125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="3" width="24.140625" collapsed="true"/>
+    <col min="23" max="24" customWidth="true" style="3" width="26.85546875" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="3" width="26.42578125" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="3" width="22.5703125" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="3" width="17.85546875" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="3" width="16.140625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="3" width="20.42578125" collapsed="true"/>
+    <col min="30" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -8732,14 +8739,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="35.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30.85546875" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="29.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="35.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="29.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -8900,42 +8907,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.85546875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="21.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="25.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="29.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="62.5703125" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="34.42578125" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="19.140625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="35.140625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="16.42578125" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="35.5703125" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="30.42578125" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="23.5703125" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="23" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="24.42578125" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="17.5703125" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="17" customWidth="1" collapsed="1"/>
-    <col min="32" max="32" width="22.42578125" customWidth="1" collapsed="1"/>
-    <col min="33" max="33" width="22.28515625" customWidth="1" collapsed="1"/>
-    <col min="34" max="34" width="18" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="18.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="24.859375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="21.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="62.5703125" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="35.140625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="16.42578125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="35.5703125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="18.85546875" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="17.5703125" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="17.0" collapsed="true"/>
+    <col min="32" max="32" customWidth="true" width="22.42578125" collapsed="true"/>
+    <col min="33" max="33" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="34" max="34" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" width="18.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36">
@@ -9352,7 +9359,7 @@
         <v>370</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>667</v>
+        <v>693</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>141</v>
@@ -9600,34 +9607,34 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="18.5703125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="15.28515625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="13.42578125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="20" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="18" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="21.5703125" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="14.28515625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="19.140625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="16.140625" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="18.42578125" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="21" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="17.7109375" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="33.5703125" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="13.28515625" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="19.28515625" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="26.5703125" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="23.7109375" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="23.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="18.5703125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="15.28515625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="9.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="13.42578125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="20.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="18.0" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="19.140625" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="16.140625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="18.42578125" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="17.7109375" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="33.5703125" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="13.28515625" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="19.28515625" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" width="23.7109375" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" width="23.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -10060,35 +10067,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="41.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="19.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="23.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.7109375" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="21" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="22" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.5703125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="24.140625" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="25.85546875" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="24.42578125" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="19" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="29.42578125" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="21.140625" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="23" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="14.140625" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="15.5703125" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="33.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="41.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="19.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="23.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="14.7109375" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="21.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="21.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="25.85546875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" width="25.7109375" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" width="19.0" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" width="29.42578125" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" width="21.140625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" width="14.140625" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" width="15.5703125" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" width="18.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">
@@ -10525,22 +10532,22 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="39.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="17.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="15.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="27" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="24.7109375" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="19.5703125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="17.85546875" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="22.5703125" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="18.7109375" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="18.140625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="20.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="39.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="17.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="24.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="19.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.0" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="17.85546875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="20.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:16">
@@ -10827,17 +10834,17 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="24.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="22" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="23.85546875" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="23.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="30.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="19.85546875" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="23.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="23.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="30.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="23.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11">
@@ -11057,15 +11064,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.140625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="35.28515625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="36.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="37.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="24" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="26.140625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="35.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="37.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="24.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
@@ -11180,14 +11187,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="34.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="36.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="35" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="29.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="36.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="29.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -11272,23 +11279,23 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.5703125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="25" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="24.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.42578125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="23.85546875" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="29.5703125" customWidth="1" collapsed="1"/>
-    <col min="13" max="14" width="36.85546875" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="30.140625" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="28.85546875" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="32.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="29.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="35.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="23.5703125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="25.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="28.42578125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="23.85546875" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" width="29.5703125" collapsed="true"/>
+    <col min="13" max="14" customWidth="true" width="36.85546875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" width="28.85546875" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" width="32.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18">
@@ -11443,14 +11450,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="26.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="30.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="36.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="33.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="41" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="33.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="27.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="26.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="30.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="36.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="33.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="33.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -11579,13 +11586,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="17.140625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="32.85546875" customWidth="1" collapsed="1"/>
-    <col min="5" max="6" width="28.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="27.140625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="17.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" width="28.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="27.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -11700,10 +11707,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.5703125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.85546875" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -11749,14 +11756,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="32.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="42" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="42.140625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30.28515625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="39.28515625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="42.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="42.140625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="30.28515625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="39.28515625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="36.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -12182,11 +12189,11 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" customWidth="1"/>
-    <col min="2" max="2" width="24.85546875" customWidth="1"/>
-    <col min="3" max="3" width="20.140625" customWidth="1"/>
-    <col min="4" max="4" width="18.7109375" customWidth="1"/>
-    <col min="5" max="6" width="30.28515625" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="20.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="24.85546875" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.7109375" collapsed="true"/>
+    <col min="5" max="6" customWidth="true" width="30.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
@@ -12247,14 +12254,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="47.42578125" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="31.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="34.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="43" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.42578125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="30" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.85546875" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="36.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="47.42578125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="31.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="34.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="43.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.42578125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="30.0" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="30.85546875" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -12846,14 +12853,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="39" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="47.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="19.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="27.7109375" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="28.140625" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="32.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.28515625" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="39.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="47.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="19.7109375" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="32.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="28.28515625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -13309,15 +13316,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="69.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="32.85546875" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="42.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="41" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="39.5703125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="69.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.42578125" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="32.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="42.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="41.0" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="39.5703125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -14867,15 +14874,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31.28515625" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="28.7109375" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="28.5703125" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="27.140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.28515625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="18.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="28.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="28.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="27.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
@@ -14965,9 +14972,9 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="7.7109375" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="7.7109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -15018,10 +15025,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="34.7109375" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="38.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="20.140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
@@ -16779,13 +16786,13 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="26.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="24.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="34" width="33.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="35" max="35" width="26.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="36" max="36" width="30.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="37" max="37" width="22.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="38" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="26.28515625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="24.5703125" collapsed="true"/>
+    <col min="3" max="34" customWidth="true" style="3" width="33.85546875" collapsed="true"/>
+    <col min="35" max="35" customWidth="true" style="3" width="26.28515625" collapsed="true"/>
+    <col min="36" max="36" customWidth="true" style="3" width="30.42578125" collapsed="true"/>
+    <col min="37" max="37" customWidth="true" style="3" width="22.7109375" collapsed="true"/>
+    <col min="38" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:34">
@@ -17050,7 +17057,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="F41" sqref="F41"/>
@@ -17058,15 +17065,15 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="21.85546875" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="22.7109375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="22.5703125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="37" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="30.7109375" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="26.42578125" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="33.140625" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="27.42578125" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="21.85546875" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="22.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="37.0" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="30.7109375" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="26.42578125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" width="27.42578125" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -17137,38 +17144,38 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="35.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="30.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="25.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="30" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="40.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="27.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="32.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="43.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="32.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="30.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="28.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="32.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="21.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="39.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="15.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="40.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="24" style="3" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="31.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="31.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="15.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="16.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="19.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="25" max="25" width="20.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="24" style="3" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="31.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="26.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="19.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="30" max="30" width="26.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="31" max="31" width="17.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="32" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="20.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="35.5703125" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="30.85546875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="25.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="24.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="30.0" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="40.7109375" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="27.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="32.5703125" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="3" width="43.28515625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="3" width="32.140625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="3" width="30.85546875" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="3" width="28.85546875" collapsed="true"/>
+    <col min="14" max="14" customWidth="true" style="3" width="32.140625" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="3" width="21.28515625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="3" width="39.7109375" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="3" width="15.5703125" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="3" width="40.85546875" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="3" width="24.0" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="3" width="31.140625" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="3" width="31.28515625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="3" width="15.140625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="3" width="16.7109375" collapsed="true"/>
+    <col min="24" max="24" customWidth="true" style="3" width="19.42578125" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="3" width="20.7109375" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="3" width="24.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="3" width="31.42578125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="3" width="26.7109375" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="3" width="19.5703125" collapsed="true"/>
+    <col min="30" max="30" customWidth="true" style="3" width="26.42578125" collapsed="true"/>
+    <col min="31" max="31" customWidth="true" style="3" width="17.5703125" collapsed="true"/>
+    <col min="32" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:31">
@@ -17470,14 +17477,14 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.140625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="31" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="15.42578125" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="29.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="27" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="29.7109375" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="33.140625" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" width="24.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="31.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="15.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="29.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="27.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="29.7109375" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" width="33.140625" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" width="30.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -17559,35 +17566,35 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="37.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="26.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="21" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="19.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="21.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="30.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="31.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="29.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="28.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="25" style="3" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="21.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="14" max="15" width="9.140625" style="3" collapsed="1"/>
-    <col min="16" max="16" width="17.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="26.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="16.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="19" max="19" width="20" style="3" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="13.5703125" style="3" customWidth="1" collapsed="1"/>
-    <col min="21" max="21" width="22.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="22" max="22" width="21.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="23" max="23" width="43.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="24" max="24" width="9.140625" style="3" collapsed="1"/>
-    <col min="25" max="25" width="18.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="26" max="26" width="20" style="3" customWidth="1" collapsed="1"/>
-    <col min="27" max="27" width="23.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="28" max="28" width="27" style="3" customWidth="1" collapsed="1"/>
-    <col min="29" max="29" width="23.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="30" max="16384" width="9.140625" style="3" collapsed="1"/>
+    <col min="1" max="1" customWidth="true" style="3" width="24.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="37.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="26.42578125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="18.85546875" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="21.0" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="19.85546875" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="3" width="21.85546875" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="3" width="30.7109375" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="31.7109375" collapsed="true"/>
+    <col min="10" max="10" customWidth="true" style="3" width="29.140625" collapsed="true"/>
+    <col min="11" max="11" customWidth="true" style="3" width="28.28515625" collapsed="true"/>
+    <col min="12" max="12" customWidth="true" style="3" width="25.0" collapsed="true"/>
+    <col min="13" max="13" customWidth="true" style="3" width="21.140625" collapsed="true"/>
+    <col min="14" max="15" style="3" width="9.140625" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="3" width="17.42578125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="3" width="26.85546875" collapsed="true"/>
+    <col min="18" max="18" customWidth="true" style="3" width="16.5703125" collapsed="true"/>
+    <col min="19" max="19" customWidth="true" style="3" width="20.0" collapsed="true"/>
+    <col min="20" max="20" customWidth="true" style="3" width="13.5703125" collapsed="true"/>
+    <col min="21" max="21" customWidth="true" style="3" width="22.140625" collapsed="true"/>
+    <col min="22" max="22" customWidth="true" style="3" width="21.28515625" collapsed="true"/>
+    <col min="23" max="23" customWidth="true" style="3" width="43.28515625" collapsed="true"/>
+    <col min="24" max="24" style="3" width="9.140625" collapsed="true"/>
+    <col min="25" max="25" customWidth="true" style="3" width="18.140625" collapsed="true"/>
+    <col min="26" max="26" customWidth="true" style="3" width="20.0" collapsed="true"/>
+    <col min="27" max="27" customWidth="true" style="3" width="23.42578125" collapsed="true"/>
+    <col min="28" max="28" customWidth="true" style="3" width="27.0" collapsed="true"/>
+    <col min="29" max="29" customWidth="true" style="3" width="23.85546875" collapsed="true"/>
+    <col min="30" max="16384" style="3" width="9.140625" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:29">

--- a/AzentioAutomationFramework_AnandhULS/TestData/ulsTestData.xlsx
+++ b/AzentioAutomationFramework_AnandhULS/TestData/ulsTestData.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3355" uniqueCount="694">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6625" uniqueCount="696">
   <si>
     <t>UserName</t>
   </si>
@@ -2143,6 +2143,12 @@
   </si>
   <si>
     <t>4934</t>
+  </si>
+  <si>
+    <t>4976</t>
+  </si>
+  <si>
+    <t/>
   </si>
 </sst>
 </file>
@@ -4733,7 +4739,7 @@
         <v>313</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>692</v>
+        <v>694</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>141</v>
@@ -9359,7 +9365,7 @@
         <v>370</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>693</v>
+        <v>695</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>141</v>
@@ -15027,7 +15033,7 @@
   <cols>
     <col min="1" max="1" customWidth="true" width="34.7109375" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="38.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.1171875" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="25.0" collapsed="true"/>
   </cols>
   <sheetData>

--- a/AzentioAutomationFramework_AnandhULS/TestData/ulsTestData.xlsx
+++ b/AzentioAutomationFramework_AnandhULS/TestData/ulsTestData.xlsx
@@ -61,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6625" uniqueCount="696">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10258" uniqueCount="697">
   <si>
     <t>UserName</t>
   </si>
@@ -2149,6 +2149,9 @@
   </si>
   <si>
     <t/>
+  </si>
+  <si>
+    <t>4990</t>
   </si>
 </sst>
 </file>
@@ -4739,7 +4742,7 @@
         <v>313</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>141</v>
@@ -9365,7 +9368,7 @@
         <v>370</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>141</v>

--- a/AzentioAutomationFramework_AnandhULS/TestData/ulsTestData.xlsx
+++ b/AzentioAutomationFramework_AnandhULS/TestData/ulsTestData.xlsx
@@ -49,19 +49,21 @@
     <sheet name="Ijarah_FacilityInfo_DE_TestData" sheetId="48" r:id="rId40"/>
     <sheet name="Ijarah_ExecutionTracker" sheetId="26" r:id="rId41"/>
     <sheet name="Murabaha_AddressDetails_DE_TD" sheetId="49" r:id="rId42"/>
-    <sheet name="Murabaha_ExecutionTracker" sheetId="27" r:id="rId43"/>
-    <sheet name="Tawruqq_ExecutionTracker" sheetId="28" r:id="rId44"/>
-    <sheet name="NewAppExecution" sheetId="41" r:id="rId45"/>
-    <sheet name="RunnerTest" sheetId="45" r:id="rId46"/>
-    <sheet name="MurabahaPurchaseOrder_TestData" sheetId="46" r:id="rId47"/>
-    <sheet name="ULSExecution" sheetId="47" r:id="rId48"/>
+    <sheet name="MurabahIncomeDetailsDC_TestData" sheetId="51" r:id="rId43"/>
+    <sheet name="Murabaha_ExecutionTracker" sheetId="27" r:id="rId44"/>
+    <sheet name="TawruqqIncomeDetailsDC_TestData" sheetId="50" r:id="rId45"/>
+    <sheet name="Tawruqq_ExecutionTracker" sheetId="28" r:id="rId46"/>
+    <sheet name="NewAppExecution" sheetId="41" r:id="rId47"/>
+    <sheet name="RunnerTest" sheetId="45" r:id="rId48"/>
+    <sheet name="MurabahaPurchaseOrder_TestData" sheetId="46" r:id="rId49"/>
+    <sheet name="ULSExecution" sheetId="47" r:id="rId50"/>
   </sheets>
   <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10258" uniqueCount="697">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10337" uniqueCount="733">
   <si>
     <t>UserName</t>
   </si>
@@ -2061,12 +2063,6 @@
     <t>DS01_AT_AL_FD_APPDATAENTRY_05</t>
   </si>
   <si>
-    <t>4668</t>
-  </si>
-  <si>
-    <t>4670</t>
-  </si>
-  <si>
     <t>userType08</t>
   </si>
   <si>
@@ -2133,25 +2129,139 @@
     <t>userType12</t>
   </si>
   <si>
-    <t>0285</t>
-  </si>
-  <si>
     <t>Murabaha data check</t>
   </si>
   <si>
-    <t>4932</t>
-  </si>
-  <si>
-    <t>4934</t>
-  </si>
-  <si>
-    <t>4976</t>
-  </si>
-  <si>
     <t/>
   </si>
   <si>
-    <t>4990</t>
+    <t>3102</t>
+  </si>
+  <si>
+    <t>00005</t>
+  </si>
+  <si>
+    <t>AT_TW_ADC_INCOME_03</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_ADC_INCOME_03</t>
+  </si>
+  <si>
+    <t>AT_TW_ADC_INCOME_01</t>
+  </si>
+  <si>
+    <t>AT_TW_ADC_INCOME_02</t>
+  </si>
+  <si>
+    <t>AT_TW_ADC_INCOME_04</t>
+  </si>
+  <si>
+    <t>AT_TW_ADC_INCOME_05</t>
+  </si>
+  <si>
+    <t>AT_MU_IDC_05</t>
+  </si>
+  <si>
+    <t>AT_MU_IDC_04</t>
+  </si>
+  <si>
+    <t>DS01_AT_MU_IDC_04</t>
+  </si>
+  <si>
+    <t>AT_MU_IDC_01</t>
+  </si>
+  <si>
+    <t>AT_MU_IDC_02</t>
+  </si>
+  <si>
+    <t>AT_MU_IDC_03</t>
+  </si>
+  <si>
+    <t>5010</t>
+  </si>
+  <si>
+    <t>return_stage</t>
+  </si>
+  <si>
+    <t>return_aler_remark</t>
+  </si>
+  <si>
+    <t>App Data Entry</t>
+  </si>
+  <si>
+    <t>Return to data entry stage</t>
+  </si>
+  <si>
+    <t>PRE_REQ_01_AT_MU_IDC_03</t>
+  </si>
+  <si>
+    <t>DS01_PRE_REQ_01_AT_MU_IDC_03</t>
+  </si>
+  <si>
+    <t>DS01_AT_MU_IDC_03</t>
+  </si>
+  <si>
+    <t>PRE_REQ_02_AT_MU_IDC_03</t>
+  </si>
+  <si>
+    <t>DS01_PRE_REQ_02_AT_MU_IDC_03</t>
+  </si>
+  <si>
+    <t>Murabaha_data_entry_user_id</t>
+  </si>
+  <si>
+    <t>userType13</t>
+  </si>
+  <si>
+    <t>0172</t>
+  </si>
+  <si>
+    <t>income_amount</t>
+  </si>
+  <si>
+    <t>income_define_percentage</t>
+  </si>
+  <si>
+    <t>income_adjusted_percentage</t>
+  </si>
+  <si>
+    <t>income_amount_considered</t>
+  </si>
+  <si>
+    <t>deduction_amount</t>
+  </si>
+  <si>
+    <t>deduction_define_percentage</t>
+  </si>
+  <si>
+    <t>deduction_adjusted_percentage</t>
+  </si>
+  <si>
+    <t>deduction_amount_considered</t>
+  </si>
+  <si>
+    <t>update_datasetID_one</t>
+  </si>
+  <si>
+    <t>3114</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>0370</t>
+  </si>
+  <si>
+    <t>5070</t>
+  </si>
+  <si>
+    <t>5090</t>
+  </si>
+  <si>
+    <t>5092</t>
   </si>
 </sst>
 </file>
@@ -2293,7 +2403,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -2405,6 +2515,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2414,7 +2537,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2485,6 +2608,11 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="2"/>
@@ -2781,16 +2909,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M16" sqref="M16"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" customWidth="true" style="3" width="19.28515625" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="16.42578125" collapsed="true"/>
+    <col min="2" max="2" bestFit="true" customWidth="true" style="3" width="10.49609375" collapsed="true"/>
     <col min="3" max="3" customWidth="true" style="3" width="15.140625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" style="3" width="25.85546875" collapsed="true"/>
     <col min="5" max="16384" style="3" width="9.140625" collapsed="true"/>
@@ -2886,10 +3014,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="49" t="s">
-        <v>668</v>
-      </c>
-      <c r="B9" s="49">
-        <v>3102</v>
+        <v>666</v>
+      </c>
+      <c r="B9" s="49" t="s">
+        <v>690</v>
       </c>
       <c r="C9" s="48" t="s">
         <v>6</v>
@@ -2897,7 +3025,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="49" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="B10" s="49">
         <v>3102</v>
@@ -2906,15 +3034,15 @@
         <v>6</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="50" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="B11" s="51" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="C11" s="52" t="s">
         <v>6</v>
@@ -2922,44 +3050,58 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="49" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C12" s="48" t="s">
         <v>6</v>
       </c>
       <c r="D12" s="53" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="49" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="C13" s="48" t="s">
         <v>6</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="14" spans="1:4">
       <c r="A14" s="49" t="s">
-        <v>689</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>690</v>
+        <v>687</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>729</v>
       </c>
       <c r="C14" s="48" t="s">
         <v>6</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>691</v>
+        <v>688</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="49" t="s">
+        <v>715</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>716</v>
+      </c>
+      <c r="C15" s="48" t="s">
+        <v>6</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>714</v>
       </c>
     </row>
   </sheetData>
@@ -2977,6 +3119,7 @@
     <hyperlink ref="C12" r:id="rId11"/>
     <hyperlink ref="C13" r:id="rId12"/>
     <hyperlink ref="C14" r:id="rId13"/>
+    <hyperlink ref="C15" r:id="rId14"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4742,7 +4885,7 @@
         <v>313</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>695</v>
+        <v>731</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>141</v>
@@ -9368,7 +9511,7 @@
         <v>370</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>696</v>
+        <v>732</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>141</v>
@@ -11738,16 +11881,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="26" t="s">
+        <v>670</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>671</v>
+      </c>
+      <c r="C2" s="32" t="s">
         <v>672</v>
       </c>
-      <c r="B2" s="26" t="s">
+      <c r="D2" s="32" t="s">
         <v>673</v>
-      </c>
-      <c r="C2" s="32" t="s">
-        <v>674</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>675</v>
       </c>
     </row>
   </sheetData>
@@ -12158,10 +12301,10 @@
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="26" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="B34" s="26" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="C34" s="14" t="s">
         <v>127</v>
@@ -12169,10 +12312,10 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="26" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="B35" s="26" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>127</v>
@@ -12193,7 +12336,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12213,7 +12356,7 @@
         <v>8</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D1" s="5" t="s">
         <v>98</v>
@@ -12227,22 +12370,22 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" s="6" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D2" s="17" t="s">
         <v>311</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
   </sheetData>
@@ -12255,10 +12398,199 @@
 
 <file path=xl/worksheets/sheet43.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H51"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="30.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="36.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.5703125" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="22.28515625" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="24.28515625" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.7578125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="25.62890625" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="27.69140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="26.73046875" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="18.203125" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="28.07421875" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="30.13671875" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="29.1796875" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" width="21.7109375" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>246</v>
+      </c>
+      <c r="E1" s="34" t="s">
+        <v>705</v>
+      </c>
+      <c r="F1" s="34" t="s">
+        <v>706</v>
+      </c>
+      <c r="G1" s="34" t="s">
+        <v>717</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>718</v>
+      </c>
+      <c r="I1" s="34" t="s">
+        <v>719</v>
+      </c>
+      <c r="J1" s="34" t="s">
+        <v>720</v>
+      </c>
+      <c r="K1" s="34" t="s">
+        <v>721</v>
+      </c>
+      <c r="L1" s="34" t="s">
+        <v>722</v>
+      </c>
+      <c r="M1" s="34" t="s">
+        <v>723</v>
+      </c>
+      <c r="N1" s="34" t="s">
+        <v>724</v>
+      </c>
+      <c r="O1" s="34" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="32" t="s">
+        <v>707</v>
+      </c>
+      <c r="F2" s="32" t="s">
+        <v>708</v>
+      </c>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="7" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="C4" s="34"/>
+      <c r="D4" s="34"/>
+      <c r="E4" s="32"/>
+      <c r="F4" s="32"/>
+      <c r="G4" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="H4" s="27" t="s">
+        <v>727</v>
+      </c>
+      <c r="I4" s="27" t="s">
+        <v>727</v>
+      </c>
+      <c r="J4" s="27" t="s">
+        <v>150</v>
+      </c>
+      <c r="K4" s="27" t="s">
+        <v>728</v>
+      </c>
+      <c r="L4" s="27" t="s">
+        <v>727</v>
+      </c>
+      <c r="M4" s="27" t="s">
+        <v>727</v>
+      </c>
+      <c r="N4" s="27" t="s">
+        <v>728</v>
+      </c>
+      <c r="O4" s="34"/>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="26" t="s">
+        <v>699</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>700</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>691</v>
+      </c>
+      <c r="E5" s="34"/>
+      <c r="F5" s="34"/>
+      <c r="G5" s="34"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="34"/>
+      <c r="J5" s="34"/>
+      <c r="K5" s="34"/>
+      <c r="L5" s="34"/>
+      <c r="M5" s="34"/>
+      <c r="N5" s="34"/>
+      <c r="O5" s="34"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H58"/>
+  <sheetViews>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C54" sqref="C54:C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -12832,18 +13164,89 @@
     </row>
     <row r="51" spans="1:3">
       <c r="A51" s="15" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B51" s="15" t="s">
-        <v>682</v>
-      </c>
-      <c r="C51" s="38" t="s">
+        <v>680</v>
+      </c>
+      <c r="C51" s="56" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="55" t="s">
+        <v>701</v>
+      </c>
+      <c r="B52" s="26"/>
+      <c r="C52" s="56" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="55" t="s">
+        <v>702</v>
+      </c>
+      <c r="B53" s="26"/>
+      <c r="C53" s="56" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="B54" s="7" t="s">
+        <v>710</v>
+      </c>
+      <c r="C54" s="56" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="6" t="s">
+        <v>712</v>
+      </c>
+      <c r="B55" s="7" t="s">
+        <v>713</v>
+      </c>
+      <c r="C55" s="56" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="B56" s="7" t="s">
+        <v>711</v>
+      </c>
+      <c r="C56" s="56" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="55" t="s">
+        <v>699</v>
+      </c>
+      <c r="B57" s="32" t="s">
+        <v>700</v>
+      </c>
+      <c r="C57" s="56" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="55" t="s">
+        <v>698</v>
+      </c>
+      <c r="B58" s="26"/>
+      <c r="C58" s="56" t="s">
         <v>127</v>
       </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C51">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C58">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12852,12 +13255,61 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet44.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H38"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C38"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="29.28515625" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1" s="34" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="26" t="s">
+        <v>692</v>
+      </c>
+      <c r="B2" s="32" t="s">
+        <v>693</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="D2" s="7" t="s">
+        <v>691</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H43"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13305,9 +13757,56 @@
         <v>127</v>
       </c>
     </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="26" t="s">
+        <v>694</v>
+      </c>
+      <c r="B39" s="26"/>
+      <c r="C39" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="26" t="s">
+        <v>695</v>
+      </c>
+      <c r="B40" s="26"/>
+      <c r="C40" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="26" t="s">
+        <v>692</v>
+      </c>
+      <c r="B41" s="32" t="s">
+        <v>693</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="54" t="s">
+        <v>696</v>
+      </c>
+      <c r="B42" s="26"/>
+      <c r="C42" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="54" t="s">
+        <v>697</v>
+      </c>
+      <c r="B43" s="26"/>
+      <c r="C43" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C38">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C43">
       <formula1>"Yes,No"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13315,7 +13814,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet45.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I108"/>
   <sheetViews>
@@ -14873,7 +15372,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet46.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I3"/>
   <sheetViews>
@@ -14971,7 +15470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet47.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet49.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C3"/>
   <sheetViews>
@@ -15021,1767 +15520,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet48.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D124"/>
-  <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="J104" sqref="J104"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" customWidth="true" width="34.7109375" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="38.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.1171875" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="25.0" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4">
-      <c r="A1" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>120</v>
-      </c>
-      <c r="C1" s="34" t="s">
-        <v>603</v>
-      </c>
-      <c r="D1" s="11" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4">
-      <c r="A2" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="B2" s="33" t="s">
-        <v>132</v>
-      </c>
-      <c r="C2" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D2" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
-      <c r="A3" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="B3" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>605</v>
-      </c>
-      <c r="D3" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
-      <c r="A4" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="C4" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D4" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="6" t="s">
-        <v>183</v>
-      </c>
-      <c r="B5" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D5" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="6" t="s">
-        <v>218</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>219</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D6" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>223</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D7" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="B8" s="33" t="s">
-        <v>224</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D8" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="B9" s="33" t="s">
-        <v>226</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="B10" s="33" t="s">
-        <v>235</v>
-      </c>
-      <c r="C10" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D10" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="B11" s="33" t="s">
-        <v>237</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D11" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="B12" s="33" t="s">
-        <v>239</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D12" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="6" t="s">
-        <v>241</v>
-      </c>
-      <c r="B13" s="33" t="s">
-        <v>242</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D13" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="6" t="s">
-        <v>249</v>
-      </c>
-      <c r="B14" s="33" t="s">
-        <v>248</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D14" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="6" t="s">
-        <v>243</v>
-      </c>
-      <c r="B15" s="33" t="s">
-        <v>244</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="6" t="s">
-        <v>250</v>
-      </c>
-      <c r="B16" s="33" t="s">
-        <v>251</v>
-      </c>
-      <c r="C16" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="6" t="s">
-        <v>252</v>
-      </c>
-      <c r="B17" s="33" t="s">
-        <v>253</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D17" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="6" t="s">
-        <v>254</v>
-      </c>
-      <c r="B18" s="33" t="s">
-        <v>255</v>
-      </c>
-      <c r="C18" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="B19" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D19" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="6" t="s">
-        <v>259</v>
-      </c>
-      <c r="B20" s="33" t="s">
-        <v>260</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D20" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="B21" s="33" t="s">
-        <v>262</v>
-      </c>
-      <c r="C21" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D21" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="22" t="s">
-        <v>277</v>
-      </c>
-      <c r="B22" s="33" t="s">
-        <v>278</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D22" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="22" t="s">
-        <v>275</v>
-      </c>
-      <c r="B23" s="33" t="s">
-        <v>276</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D23" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="22" t="s">
-        <v>290</v>
-      </c>
-      <c r="B24" s="33" t="s">
-        <v>291</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D24" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="22" t="s">
-        <v>293</v>
-      </c>
-      <c r="B25" s="33" t="s">
-        <v>294</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D25" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="22" t="s">
-        <v>295</v>
-      </c>
-      <c r="B26" s="33" t="s">
-        <v>296</v>
-      </c>
-      <c r="C26" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D26" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="B27" s="33" t="s">
-        <v>447</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D27" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="B28" s="33" t="s">
-        <v>449</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D28" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="B29" s="33" t="s">
-        <v>455</v>
-      </c>
-      <c r="C29" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D29" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="B30" s="33" t="s">
-        <v>456</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D30" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="B31" s="33" t="s">
-        <v>457</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D31" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="B32" s="33" t="s">
-        <v>458</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D32" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="B33" s="33" t="s">
-        <v>459</v>
-      </c>
-      <c r="C33" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D33" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
-      <c r="A34" s="22" t="s">
-        <v>300</v>
-      </c>
-      <c r="B34" s="33" t="s">
-        <v>302</v>
-      </c>
-      <c r="C34" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D34" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
-      <c r="A35" s="22" t="s">
-        <v>301</v>
-      </c>
-      <c r="B35" s="33" t="s">
-        <v>303</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D35" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" s="22" t="s">
-        <v>304</v>
-      </c>
-      <c r="B36" s="33" t="s">
-        <v>305</v>
-      </c>
-      <c r="C36" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D36" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" s="22" t="s">
-        <v>307</v>
-      </c>
-      <c r="B37" s="33" t="s">
-        <v>308</v>
-      </c>
-      <c r="C37" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D37" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="22" t="s">
-        <v>312</v>
-      </c>
-      <c r="B38" s="33" t="s">
-        <v>313</v>
-      </c>
-      <c r="C38" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D38" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
-      <c r="A39" s="22" t="s">
-        <v>329</v>
-      </c>
-      <c r="B39" s="33" t="s">
-        <v>330</v>
-      </c>
-      <c r="C39" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D39" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="22" t="s">
-        <v>309</v>
-      </c>
-      <c r="B40" s="33" t="s">
-        <v>310</v>
-      </c>
-      <c r="C40" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D40" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="26" t="s">
-        <v>314</v>
-      </c>
-      <c r="B41" s="44" t="s">
-        <v>320</v>
-      </c>
-      <c r="C41" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D41" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="26" t="s">
-        <v>315</v>
-      </c>
-      <c r="B42" s="44" t="s">
-        <v>321</v>
-      </c>
-      <c r="C42" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D42" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="26" t="s">
-        <v>316</v>
-      </c>
-      <c r="B43" s="44" t="s">
-        <v>322</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D43" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="26" t="s">
-        <v>317</v>
-      </c>
-      <c r="B44" s="44" t="s">
-        <v>323</v>
-      </c>
-      <c r="C44" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D44" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="26" t="s">
-        <v>318</v>
-      </c>
-      <c r="B45" s="44" t="s">
-        <v>324</v>
-      </c>
-      <c r="C45" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D45" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="26" t="s">
-        <v>319</v>
-      </c>
-      <c r="B46" s="44" t="s">
-        <v>325</v>
-      </c>
-      <c r="C46" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D46" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="22" t="s">
-        <v>333</v>
-      </c>
-      <c r="B47" s="44" t="s">
-        <v>334</v>
-      </c>
-      <c r="C47" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D47" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="22" t="s">
-        <v>335</v>
-      </c>
-      <c r="B48" s="44" t="s">
-        <v>339</v>
-      </c>
-      <c r="C48" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D48" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="22" t="s">
-        <v>336</v>
-      </c>
-      <c r="B49" s="44" t="s">
-        <v>340</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="22" t="s">
-        <v>337</v>
-      </c>
-      <c r="B50" s="44" t="s">
-        <v>341</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D50" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="22" t="s">
-        <v>338</v>
-      </c>
-      <c r="B51" s="44" t="s">
-        <v>342</v>
-      </c>
-      <c r="C51" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D51" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="22" t="s">
-        <v>343</v>
-      </c>
-      <c r="B52" s="44" t="s">
-        <v>344</v>
-      </c>
-      <c r="C52" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D52" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="22" t="s">
-        <v>345</v>
-      </c>
-      <c r="B53" s="44" t="s">
-        <v>346</v>
-      </c>
-      <c r="C53" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D53" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="B54" s="33" t="s">
-        <v>348</v>
-      </c>
-      <c r="C54" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D54" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="B55" s="33" t="s">
-        <v>350</v>
-      </c>
-      <c r="C55" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D55" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
-      <c r="A56" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="B56" s="33" t="s">
-        <v>352</v>
-      </c>
-      <c r="C56" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D56" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
-      <c r="A57" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="B57" s="33" t="s">
-        <v>354</v>
-      </c>
-      <c r="C57" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D57" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="B58" s="33" t="s">
-        <v>356</v>
-      </c>
-      <c r="C58" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D58" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="B59" s="33" t="s">
-        <v>358</v>
-      </c>
-      <c r="C59" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D59" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="B60" s="33" t="s">
-        <v>360</v>
-      </c>
-      <c r="C60" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D60" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="22" t="s">
-        <v>460</v>
-      </c>
-      <c r="B61" s="33" t="s">
-        <v>461</v>
-      </c>
-      <c r="C61" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D61" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="22" t="s">
-        <v>462</v>
-      </c>
-      <c r="B62" s="33" t="s">
-        <v>463</v>
-      </c>
-      <c r="C62" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D62" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="22" t="s">
-        <v>464</v>
-      </c>
-      <c r="B63" s="33" t="s">
-        <v>465</v>
-      </c>
-      <c r="C63" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D63" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="22" t="s">
-        <v>466</v>
-      </c>
-      <c r="B64" s="33" t="s">
-        <v>467</v>
-      </c>
-      <c r="C64" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D64" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="22" t="s">
-        <v>468</v>
-      </c>
-      <c r="B65" s="33" t="s">
-        <v>469</v>
-      </c>
-      <c r="C65" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D65" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="22" t="s">
-        <v>470</v>
-      </c>
-      <c r="B66" s="33" t="s">
-        <v>471</v>
-      </c>
-      <c r="C66" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D66" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="22" t="s">
-        <v>472</v>
-      </c>
-      <c r="B67" s="33" t="s">
-        <v>473</v>
-      </c>
-      <c r="C67" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D67" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="26" t="s">
-        <v>474</v>
-      </c>
-      <c r="B68" s="44" t="s">
-        <v>475</v>
-      </c>
-      <c r="C68" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D68" s="45" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="26" t="s">
-        <v>476</v>
-      </c>
-      <c r="B69" s="44" t="s">
-        <v>477</v>
-      </c>
-      <c r="C69" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D69" s="45" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="26" t="s">
-        <v>478</v>
-      </c>
-      <c r="B70" s="44" t="s">
-        <v>479</v>
-      </c>
-      <c r="C70" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D70" s="45" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="26" t="s">
-        <v>480</v>
-      </c>
-      <c r="B71" s="44" t="s">
-        <v>481</v>
-      </c>
-      <c r="C71" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D71" s="45" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="26" t="s">
-        <v>482</v>
-      </c>
-      <c r="B72" s="44" t="s">
-        <v>483</v>
-      </c>
-      <c r="C72" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D72" s="45" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
-      <c r="A73" s="26" t="s">
-        <v>484</v>
-      </c>
-      <c r="B73" s="44" t="s">
-        <v>485</v>
-      </c>
-      <c r="C73" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D73" s="45" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="26" t="s">
-        <v>486</v>
-      </c>
-      <c r="B74" s="44" t="s">
-        <v>487</v>
-      </c>
-      <c r="C74" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D74" s="45" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="30" t="s">
-        <v>361</v>
-      </c>
-      <c r="B75" s="33" t="s">
-        <v>362</v>
-      </c>
-      <c r="C75" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D75" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="30" t="s">
-        <v>363</v>
-      </c>
-      <c r="B76" s="33" t="s">
-        <v>364</v>
-      </c>
-      <c r="C76" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D76" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="30" t="s">
-        <v>365</v>
-      </c>
-      <c r="B77" s="33" t="s">
-        <v>366</v>
-      </c>
-      <c r="C77" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D77" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="30" t="s">
-        <v>367</v>
-      </c>
-      <c r="B78" s="33" t="s">
-        <v>368</v>
-      </c>
-      <c r="C78" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D78" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="30" t="s">
-        <v>369</v>
-      </c>
-      <c r="B79" s="33" t="s">
-        <v>370</v>
-      </c>
-      <c r="C79" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D79" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="30" t="s">
-        <v>371</v>
-      </c>
-      <c r="B80" s="33" t="s">
-        <v>372</v>
-      </c>
-      <c r="C80" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D80" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="30" t="s">
-        <v>373</v>
-      </c>
-      <c r="B81" s="33" t="s">
-        <v>374</v>
-      </c>
-      <c r="C81" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D81" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="26" t="s">
-        <v>522</v>
-      </c>
-      <c r="B82" s="44" t="s">
-        <v>528</v>
-      </c>
-      <c r="C82" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D82" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="26" t="s">
-        <v>523</v>
-      </c>
-      <c r="B83" s="44" t="s">
-        <v>529</v>
-      </c>
-      <c r="C83" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D83" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="26" t="s">
-        <v>524</v>
-      </c>
-      <c r="B84" s="44" t="s">
-        <v>530</v>
-      </c>
-      <c r="C84" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D84" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="26" t="s">
-        <v>525</v>
-      </c>
-      <c r="B85" s="44" t="s">
-        <v>531</v>
-      </c>
-      <c r="C85" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D85" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="26" t="s">
-        <v>526</v>
-      </c>
-      <c r="B86" s="44" t="s">
-        <v>532</v>
-      </c>
-      <c r="C86" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D86" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="26" t="s">
-        <v>527</v>
-      </c>
-      <c r="B87" s="44" t="s">
-        <v>533</v>
-      </c>
-      <c r="C87" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D87" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="6" t="s">
-        <v>534</v>
-      </c>
-      <c r="B88" s="33" t="s">
-        <v>541</v>
-      </c>
-      <c r="C88" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D88" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="6" t="s">
-        <v>535</v>
-      </c>
-      <c r="B89" s="33" t="s">
-        <v>542</v>
-      </c>
-      <c r="C89" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D89" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="6" t="s">
-        <v>536</v>
-      </c>
-      <c r="B90" s="33" t="s">
-        <v>543</v>
-      </c>
-      <c r="C90" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D90" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="B91" s="33" t="s">
-        <v>544</v>
-      </c>
-      <c r="C91" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D91" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="6" t="s">
-        <v>538</v>
-      </c>
-      <c r="B92" s="33" t="s">
-        <v>545</v>
-      </c>
-      <c r="C92" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D92" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="6" t="s">
-        <v>539</v>
-      </c>
-      <c r="B93" s="33" t="s">
-        <v>546</v>
-      </c>
-      <c r="C93" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D93" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="6" t="s">
-        <v>540</v>
-      </c>
-      <c r="B94" s="33" t="s">
-        <v>547</v>
-      </c>
-      <c r="C94" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D94" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="22" t="s">
-        <v>494</v>
-      </c>
-      <c r="B95" s="33" t="s">
-        <v>500</v>
-      </c>
-      <c r="C95" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D95" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="22" t="s">
-        <v>495</v>
-      </c>
-      <c r="B96" s="33" t="s">
-        <v>501</v>
-      </c>
-      <c r="C96" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D96" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="22" t="s">
-        <v>496</v>
-      </c>
-      <c r="B97" s="33" t="s">
-        <v>502</v>
-      </c>
-      <c r="C97" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D97" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="22" t="s">
-        <v>497</v>
-      </c>
-      <c r="B98" s="33" t="s">
-        <v>503</v>
-      </c>
-      <c r="C98" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D98" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="22" t="s">
-        <v>498</v>
-      </c>
-      <c r="B99" s="33" t="s">
-        <v>504</v>
-      </c>
-      <c r="C99" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D99" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="22" t="s">
-        <v>499</v>
-      </c>
-      <c r="B100" s="33" t="s">
-        <v>520</v>
-      </c>
-      <c r="C100" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D100" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="22" t="s">
-        <v>519</v>
-      </c>
-      <c r="B101" s="33" t="s">
-        <v>521</v>
-      </c>
-      <c r="C101" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D101" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="22" t="s">
-        <v>505</v>
-      </c>
-      <c r="B102" s="44" t="s">
-        <v>512</v>
-      </c>
-      <c r="C102" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D102" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
-      <c r="A103" s="22" t="s">
-        <v>506</v>
-      </c>
-      <c r="B103" s="44" t="s">
-        <v>513</v>
-      </c>
-      <c r="C103" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D103" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="22" t="s">
-        <v>507</v>
-      </c>
-      <c r="B104" s="44" t="s">
-        <v>514</v>
-      </c>
-      <c r="C104" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D104" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="22" t="s">
-        <v>508</v>
-      </c>
-      <c r="B105" s="44" t="s">
-        <v>515</v>
-      </c>
-      <c r="C105" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D105" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4">
-      <c r="A106" s="22" t="s">
-        <v>509</v>
-      </c>
-      <c r="B106" s="44" t="s">
-        <v>516</v>
-      </c>
-      <c r="C106" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D106" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="22" t="s">
-        <v>510</v>
-      </c>
-      <c r="B107" s="44" t="s">
-        <v>517</v>
-      </c>
-      <c r="C107" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D107" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="22" t="s">
-        <v>511</v>
-      </c>
-      <c r="B108" s="44" t="s">
-        <v>518</v>
-      </c>
-      <c r="C108" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D108" s="24" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4">
-      <c r="A109" s="6" t="s">
-        <v>635</v>
-      </c>
-      <c r="B109" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="C109" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D109" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="6" t="s">
-        <v>637</v>
-      </c>
-      <c r="B110" s="6" t="s">
-        <v>638</v>
-      </c>
-      <c r="C110" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D110" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="6" t="s">
-        <v>639</v>
-      </c>
-      <c r="B111" s="6" t="s">
-        <v>640</v>
-      </c>
-      <c r="C111" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D111" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="6" t="s">
-        <v>641</v>
-      </c>
-      <c r="B112" s="6" t="s">
-        <v>642</v>
-      </c>
-      <c r="C112" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D112" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="6" t="s">
-        <v>643</v>
-      </c>
-      <c r="B113" s="6" t="s">
-        <v>644</v>
-      </c>
-      <c r="C113" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D113" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4">
-      <c r="A114" s="6" t="s">
-        <v>645</v>
-      </c>
-      <c r="B114" s="6" t="s">
-        <v>646</v>
-      </c>
-      <c r="C114" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D114" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4">
-      <c r="A115" s="6" t="s">
-        <v>647</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>648</v>
-      </c>
-      <c r="C115" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D115" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
-      <c r="A116" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="B116" s="6" t="s">
-        <v>650</v>
-      </c>
-      <c r="C116" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D116" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="117" spans="1:4">
-      <c r="A117" s="6" t="s">
-        <v>651</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="C117" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D117" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="118" spans="1:4">
-      <c r="A118" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="B118" s="6" t="s">
-        <v>654</v>
-      </c>
-      <c r="C118" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D118" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="119" spans="1:4">
-      <c r="A119" s="6" t="s">
-        <v>655</v>
-      </c>
-      <c r="B119" s="6"/>
-      <c r="C119" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D119" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="120" spans="1:4">
-      <c r="A120" s="47" t="s">
-        <v>656</v>
-      </c>
-      <c r="B120" s="47" t="s">
-        <v>657</v>
-      </c>
-      <c r="C120" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D120" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="121" spans="1:4">
-      <c r="A121" s="47" t="s">
-        <v>658</v>
-      </c>
-      <c r="B121" s="47" t="s">
-        <v>659</v>
-      </c>
-      <c r="C121" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D121" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="122" spans="1:4">
-      <c r="A122" s="47" t="s">
-        <v>660</v>
-      </c>
-      <c r="B122" s="47" t="s">
-        <v>661</v>
-      </c>
-      <c r="C122" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D122" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="123" spans="1:4">
-      <c r="A123" s="47" t="s">
-        <v>662</v>
-      </c>
-      <c r="B123" s="47" t="s">
-        <v>663</v>
-      </c>
-      <c r="C123" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D123" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="124" spans="1:4">
-      <c r="A124" s="47" t="s">
-        <v>664</v>
-      </c>
-      <c r="B124" s="47" t="s">
-        <v>665</v>
-      </c>
-      <c r="C124" s="18" t="s">
-        <v>606</v>
-      </c>
-      <c r="D124" s="14" t="s">
-        <v>127</v>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D108">
-      <formula1>"Yes,No"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -17061,6 +15799,1767 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:D124"/>
+  <sheetViews>
+    <sheetView topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="J104" sqref="J104"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" customWidth="true" width="34.7109375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="38.85546875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.1171875" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="25.0" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" s="13" t="s">
+        <v>119</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>120</v>
+      </c>
+      <c r="C1" s="34" t="s">
+        <v>603</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="B2" s="33" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D2" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>605</v>
+      </c>
+      <c r="D3" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="B4" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="C4" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="C5" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D5" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>219</v>
+      </c>
+      <c r="C6" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D6" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>223</v>
+      </c>
+      <c r="C7" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D7" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B8" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D8" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="B9" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D9" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="6" t="s">
+        <v>234</v>
+      </c>
+      <c r="B10" s="33" t="s">
+        <v>235</v>
+      </c>
+      <c r="C10" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D10" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>237</v>
+      </c>
+      <c r="C11" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D11" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>239</v>
+      </c>
+      <c r="C12" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D12" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>242</v>
+      </c>
+      <c r="C13" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>248</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>244</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D15" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="6" t="s">
+        <v>250</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>251</v>
+      </c>
+      <c r="C16" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D16" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>253</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="6" t="s">
+        <v>254</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>255</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>257</v>
+      </c>
+      <c r="C19" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D19" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="6" t="s">
+        <v>259</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>260</v>
+      </c>
+      <c r="C20" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D20" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="6" t="s">
+        <v>261</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>262</v>
+      </c>
+      <c r="C21" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D21" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>278</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D22" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="22" t="s">
+        <v>275</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>276</v>
+      </c>
+      <c r="C23" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D23" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="22" t="s">
+        <v>290</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>291</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>294</v>
+      </c>
+      <c r="C25" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D25" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>296</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D26" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="B27" s="33" t="s">
+        <v>447</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D27" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>449</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D28" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>455</v>
+      </c>
+      <c r="C29" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D29" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>456</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D30" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>457</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D31" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>458</v>
+      </c>
+      <c r="C32" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D32" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="B33" s="33" t="s">
+        <v>459</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D33" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="22" t="s">
+        <v>300</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D34" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="B35" s="33" t="s">
+        <v>303</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="B36" s="33" t="s">
+        <v>305</v>
+      </c>
+      <c r="C36" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D36" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="22" t="s">
+        <v>307</v>
+      </c>
+      <c r="B37" s="33" t="s">
+        <v>308</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D37" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="B38" s="33" t="s">
+        <v>313</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D38" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="22" t="s">
+        <v>329</v>
+      </c>
+      <c r="B39" s="33" t="s">
+        <v>330</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D39" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="22" t="s">
+        <v>309</v>
+      </c>
+      <c r="B40" s="33" t="s">
+        <v>310</v>
+      </c>
+      <c r="C40" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D40" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="B41" s="44" t="s">
+        <v>320</v>
+      </c>
+      <c r="C41" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D41" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="26" t="s">
+        <v>315</v>
+      </c>
+      <c r="B42" s="44" t="s">
+        <v>321</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D42" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="B43" s="44" t="s">
+        <v>322</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D43" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="26" t="s">
+        <v>317</v>
+      </c>
+      <c r="B44" s="44" t="s">
+        <v>323</v>
+      </c>
+      <c r="C44" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D44" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="26" t="s">
+        <v>318</v>
+      </c>
+      <c r="B45" s="44" t="s">
+        <v>324</v>
+      </c>
+      <c r="C45" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D45" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="26" t="s">
+        <v>319</v>
+      </c>
+      <c r="B46" s="44" t="s">
+        <v>325</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D46" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="22" t="s">
+        <v>333</v>
+      </c>
+      <c r="B47" s="44" t="s">
+        <v>334</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D47" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="22" t="s">
+        <v>335</v>
+      </c>
+      <c r="B48" s="44" t="s">
+        <v>339</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D48" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="22" t="s">
+        <v>336</v>
+      </c>
+      <c r="B49" s="44" t="s">
+        <v>340</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="B50" s="44" t="s">
+        <v>341</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="B51" s="44" t="s">
+        <v>342</v>
+      </c>
+      <c r="C51" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D51" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="22" t="s">
+        <v>343</v>
+      </c>
+      <c r="B52" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="C52" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D52" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="B53" s="44" t="s">
+        <v>346</v>
+      </c>
+      <c r="C53" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B54" s="33" t="s">
+        <v>348</v>
+      </c>
+      <c r="C54" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="B55" s="33" t="s">
+        <v>350</v>
+      </c>
+      <c r="C55" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D55" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="B56" s="33" t="s">
+        <v>352</v>
+      </c>
+      <c r="C56" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D56" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="B57" s="33" t="s">
+        <v>354</v>
+      </c>
+      <c r="C57" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D57" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="B58" s="33" t="s">
+        <v>356</v>
+      </c>
+      <c r="C58" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D58" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="B59" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="C59" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D59" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="B60" s="33" t="s">
+        <v>360</v>
+      </c>
+      <c r="C60" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D60" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="22" t="s">
+        <v>460</v>
+      </c>
+      <c r="B61" s="33" t="s">
+        <v>461</v>
+      </c>
+      <c r="C61" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D61" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="22" t="s">
+        <v>462</v>
+      </c>
+      <c r="B62" s="33" t="s">
+        <v>463</v>
+      </c>
+      <c r="C62" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D62" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="22" t="s">
+        <v>464</v>
+      </c>
+      <c r="B63" s="33" t="s">
+        <v>465</v>
+      </c>
+      <c r="C63" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="22" t="s">
+        <v>466</v>
+      </c>
+      <c r="B64" s="33" t="s">
+        <v>467</v>
+      </c>
+      <c r="C64" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="22" t="s">
+        <v>468</v>
+      </c>
+      <c r="B65" s="33" t="s">
+        <v>469</v>
+      </c>
+      <c r="C65" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="22" t="s">
+        <v>470</v>
+      </c>
+      <c r="B66" s="33" t="s">
+        <v>471</v>
+      </c>
+      <c r="C66" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="22" t="s">
+        <v>472</v>
+      </c>
+      <c r="B67" s="33" t="s">
+        <v>473</v>
+      </c>
+      <c r="C67" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="26" t="s">
+        <v>474</v>
+      </c>
+      <c r="B68" s="44" t="s">
+        <v>475</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D68" s="45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="26" t="s">
+        <v>476</v>
+      </c>
+      <c r="B69" s="44" t="s">
+        <v>477</v>
+      </c>
+      <c r="C69" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D69" s="45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="26" t="s">
+        <v>478</v>
+      </c>
+      <c r="B70" s="44" t="s">
+        <v>479</v>
+      </c>
+      <c r="C70" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D70" s="45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="26" t="s">
+        <v>480</v>
+      </c>
+      <c r="B71" s="44" t="s">
+        <v>481</v>
+      </c>
+      <c r="C71" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D71" s="45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="26" t="s">
+        <v>482</v>
+      </c>
+      <c r="B72" s="44" t="s">
+        <v>483</v>
+      </c>
+      <c r="C72" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D72" s="45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="26" t="s">
+        <v>484</v>
+      </c>
+      <c r="B73" s="44" t="s">
+        <v>485</v>
+      </c>
+      <c r="C73" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D73" s="45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="26" t="s">
+        <v>486</v>
+      </c>
+      <c r="B74" s="44" t="s">
+        <v>487</v>
+      </c>
+      <c r="C74" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D74" s="45" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="30" t="s">
+        <v>361</v>
+      </c>
+      <c r="B75" s="33" t="s">
+        <v>362</v>
+      </c>
+      <c r="C75" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D75" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="30" t="s">
+        <v>363</v>
+      </c>
+      <c r="B76" s="33" t="s">
+        <v>364</v>
+      </c>
+      <c r="C76" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D76" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="30" t="s">
+        <v>365</v>
+      </c>
+      <c r="B77" s="33" t="s">
+        <v>366</v>
+      </c>
+      <c r="C77" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D77" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="30" t="s">
+        <v>367</v>
+      </c>
+      <c r="B78" s="33" t="s">
+        <v>368</v>
+      </c>
+      <c r="C78" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D78" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="30" t="s">
+        <v>369</v>
+      </c>
+      <c r="B79" s="33" t="s">
+        <v>370</v>
+      </c>
+      <c r="C79" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D79" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="30" t="s">
+        <v>371</v>
+      </c>
+      <c r="B80" s="33" t="s">
+        <v>372</v>
+      </c>
+      <c r="C80" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D80" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="30" t="s">
+        <v>373</v>
+      </c>
+      <c r="B81" s="33" t="s">
+        <v>374</v>
+      </c>
+      <c r="C81" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D81" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="26" t="s">
+        <v>522</v>
+      </c>
+      <c r="B82" s="44" t="s">
+        <v>528</v>
+      </c>
+      <c r="C82" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D82" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="26" t="s">
+        <v>523</v>
+      </c>
+      <c r="B83" s="44" t="s">
+        <v>529</v>
+      </c>
+      <c r="C83" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D83" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="26" t="s">
+        <v>524</v>
+      </c>
+      <c r="B84" s="44" t="s">
+        <v>530</v>
+      </c>
+      <c r="C84" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D84" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="26" t="s">
+        <v>525</v>
+      </c>
+      <c r="B85" s="44" t="s">
+        <v>531</v>
+      </c>
+      <c r="C85" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D85" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="26" t="s">
+        <v>526</v>
+      </c>
+      <c r="B86" s="44" t="s">
+        <v>532</v>
+      </c>
+      <c r="C86" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D86" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="26" t="s">
+        <v>527</v>
+      </c>
+      <c r="B87" s="44" t="s">
+        <v>533</v>
+      </c>
+      <c r="C87" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D87" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="6" t="s">
+        <v>534</v>
+      </c>
+      <c r="B88" s="33" t="s">
+        <v>541</v>
+      </c>
+      <c r="C88" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D88" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="6" t="s">
+        <v>535</v>
+      </c>
+      <c r="B89" s="33" t="s">
+        <v>542</v>
+      </c>
+      <c r="C89" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D89" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="B90" s="33" t="s">
+        <v>543</v>
+      </c>
+      <c r="C90" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D90" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="6" t="s">
+        <v>537</v>
+      </c>
+      <c r="B91" s="33" t="s">
+        <v>544</v>
+      </c>
+      <c r="C91" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D91" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="B92" s="33" t="s">
+        <v>545</v>
+      </c>
+      <c r="C92" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D92" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="6" t="s">
+        <v>539</v>
+      </c>
+      <c r="B93" s="33" t="s">
+        <v>546</v>
+      </c>
+      <c r="C93" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D93" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="B94" s="33" t="s">
+        <v>547</v>
+      </c>
+      <c r="C94" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D94" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="22" t="s">
+        <v>494</v>
+      </c>
+      <c r="B95" s="33" t="s">
+        <v>500</v>
+      </c>
+      <c r="C95" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D95" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="22" t="s">
+        <v>495</v>
+      </c>
+      <c r="B96" s="33" t="s">
+        <v>501</v>
+      </c>
+      <c r="C96" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D96" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="22" t="s">
+        <v>496</v>
+      </c>
+      <c r="B97" s="33" t="s">
+        <v>502</v>
+      </c>
+      <c r="C97" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D97" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="22" t="s">
+        <v>497</v>
+      </c>
+      <c r="B98" s="33" t="s">
+        <v>503</v>
+      </c>
+      <c r="C98" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D98" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="22" t="s">
+        <v>498</v>
+      </c>
+      <c r="B99" s="33" t="s">
+        <v>504</v>
+      </c>
+      <c r="C99" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D99" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="22" t="s">
+        <v>499</v>
+      </c>
+      <c r="B100" s="33" t="s">
+        <v>520</v>
+      </c>
+      <c r="C100" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D100" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="22" t="s">
+        <v>519</v>
+      </c>
+      <c r="B101" s="33" t="s">
+        <v>521</v>
+      </c>
+      <c r="C101" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D101" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="22" t="s">
+        <v>505</v>
+      </c>
+      <c r="B102" s="44" t="s">
+        <v>512</v>
+      </c>
+      <c r="C102" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D102" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="22" t="s">
+        <v>506</v>
+      </c>
+      <c r="B103" s="44" t="s">
+        <v>513</v>
+      </c>
+      <c r="C103" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D103" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="22" t="s">
+        <v>507</v>
+      </c>
+      <c r="B104" s="44" t="s">
+        <v>514</v>
+      </c>
+      <c r="C104" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D104" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="22" t="s">
+        <v>508</v>
+      </c>
+      <c r="B105" s="44" t="s">
+        <v>515</v>
+      </c>
+      <c r="C105" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D105" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="22" t="s">
+        <v>509</v>
+      </c>
+      <c r="B106" s="44" t="s">
+        <v>516</v>
+      </c>
+      <c r="C106" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D106" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="22" t="s">
+        <v>510</v>
+      </c>
+      <c r="B107" s="44" t="s">
+        <v>517</v>
+      </c>
+      <c r="C107" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D107" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="22" t="s">
+        <v>511</v>
+      </c>
+      <c r="B108" s="44" t="s">
+        <v>518</v>
+      </c>
+      <c r="C108" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D108" s="24" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="C109" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D109" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="B110" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="C110" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D110" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="B111" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="C111" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D111" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="B112" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="C112" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D112" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="B113" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="C113" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D113" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="C114" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D114" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="C115" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D115" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="C116" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D116" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="C117" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D117" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="B118" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="C118" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D118" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="B119" s="6"/>
+      <c r="C119" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D119" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="47" t="s">
+        <v>656</v>
+      </c>
+      <c r="B120" s="47" t="s">
+        <v>657</v>
+      </c>
+      <c r="C120" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D120" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="47" t="s">
+        <v>658</v>
+      </c>
+      <c r="B121" s="47" t="s">
+        <v>659</v>
+      </c>
+      <c r="C121" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D121" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="47" t="s">
+        <v>660</v>
+      </c>
+      <c r="B122" s="47" t="s">
+        <v>661</v>
+      </c>
+      <c r="C122" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D122" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="47" t="s">
+        <v>662</v>
+      </c>
+      <c r="B123" s="47" t="s">
+        <v>663</v>
+      </c>
+      <c r="C123" s="18" t="s">
+        <v>604</v>
+      </c>
+      <c r="D123" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="47" t="s">
+        <v>664</v>
+      </c>
+      <c r="B124" s="47" t="s">
+        <v>665</v>
+      </c>
+      <c r="C124" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D124" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D2:D108">
+      <formula1>"Yes,No"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/AzentioAutomationFramework_AnandhULS/TestData/ulsTestData.xlsx
+++ b/AzentioAutomationFramework_AnandhULS/TestData/ulsTestData.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600"/>
+    <workbookView xWindow="0" yWindow="75" windowWidth="28755" windowHeight="12600" firstSheet="44" activeTab="49"/>
   </bookViews>
   <sheets>
     <sheet name="ijara_LoginCredentials" sheetId="1" r:id="rId1"/>
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10337" uniqueCount="733">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3556" uniqueCount="761">
   <si>
     <t>UserName</t>
   </si>
@@ -2132,136 +2132,220 @@
     <t>Murabaha data check</t>
   </si>
   <si>
+    <t>3102</t>
+  </si>
+  <si>
+    <t>00005</t>
+  </si>
+  <si>
+    <t>AT_TW_ADC_INCOME_03</t>
+  </si>
+  <si>
+    <t>DS01_AT_TW_ADC_INCOME_03</t>
+  </si>
+  <si>
+    <t>AT_TW_ADC_INCOME_01</t>
+  </si>
+  <si>
+    <t>AT_TW_ADC_INCOME_02</t>
+  </si>
+  <si>
+    <t>AT_TW_ADC_INCOME_04</t>
+  </si>
+  <si>
+    <t>AT_TW_ADC_INCOME_05</t>
+  </si>
+  <si>
+    <t>AT_MU_IDC_05</t>
+  </si>
+  <si>
+    <t>AT_MU_IDC_04</t>
+  </si>
+  <si>
+    <t>DS01_AT_MU_IDC_04</t>
+  </si>
+  <si>
+    <t>AT_MU_IDC_01</t>
+  </si>
+  <si>
+    <t>AT_MU_IDC_02</t>
+  </si>
+  <si>
+    <t>AT_MU_IDC_03</t>
+  </si>
+  <si>
+    <t>return_stage</t>
+  </si>
+  <si>
+    <t>return_aler_remark</t>
+  </si>
+  <si>
+    <t>App Data Entry</t>
+  </si>
+  <si>
+    <t>Return to data entry stage</t>
+  </si>
+  <si>
+    <t>PRE_REQ_01_AT_MU_IDC_03</t>
+  </si>
+  <si>
+    <t>DS01_PRE_REQ_01_AT_MU_IDC_03</t>
+  </si>
+  <si>
+    <t>DS01_AT_MU_IDC_03</t>
+  </si>
+  <si>
+    <t>PRE_REQ_02_AT_MU_IDC_03</t>
+  </si>
+  <si>
+    <t>DS01_PRE_REQ_02_AT_MU_IDC_03</t>
+  </si>
+  <si>
+    <t>Murabaha_data_entry_user_id</t>
+  </si>
+  <si>
+    <t>userType13</t>
+  </si>
+  <si>
+    <t>0172</t>
+  </si>
+  <si>
+    <t>income_amount</t>
+  </si>
+  <si>
+    <t>income_define_percentage</t>
+  </si>
+  <si>
+    <t>income_adjusted_percentage</t>
+  </si>
+  <si>
+    <t>income_amount_considered</t>
+  </si>
+  <si>
+    <t>deduction_amount</t>
+  </si>
+  <si>
+    <t>deduction_define_percentage</t>
+  </si>
+  <si>
+    <t>deduction_adjusted_percentage</t>
+  </si>
+  <si>
+    <t>deduction_amount_considered</t>
+  </si>
+  <si>
+    <t>update_datasetID_one</t>
+  </si>
+  <si>
+    <t>100</t>
+  </si>
+  <si>
+    <t>1000</t>
+  </si>
+  <si>
+    <t>0370</t>
+  </si>
+  <si>
+    <t>5090</t>
+  </si>
+  <si>
+    <t>5092</t>
+  </si>
+  <si>
+    <t>userType14</t>
+  </si>
+  <si>
+    <t>Auto Loan DISBMKR</t>
+  </si>
+  <si>
+    <t>userType15</t>
+  </si>
+  <si>
+    <t>Auto Loan Data Entry</t>
+  </si>
+  <si>
+    <t>Auto Loan DIsChkr</t>
+  </si>
+  <si>
+    <t>userType16</t>
+  </si>
+  <si>
+    <t>userType17</t>
+  </si>
+  <si>
+    <t>Temp_AutoLoan_User_ID</t>
+  </si>
+  <si>
+    <t>0372</t>
+  </si>
+  <si>
+    <t>0356</t>
+  </si>
+  <si>
+    <t>0371</t>
+  </si>
+  <si>
+    <t>AT_AL_APPDATAENTRY_REFDETAILS_01</t>
+  </si>
+  <si>
+    <t>DS01_AT_AL_APPDATAENTRY_REFDETAILS_01</t>
+  </si>
+  <si>
+    <t>AT_AL_APPDATAENTRY_REFDETAILS_02</t>
+  </si>
+  <si>
+    <t>DS01_AT_AL_APPDATAENTRY_REFDETAILS_02</t>
+  </si>
+  <si>
+    <t>AT_AL_BD_DMC_01_02</t>
+  </si>
+  <si>
+    <t>DS01_AT_AL_BD_DMC_01_02</t>
+  </si>
+  <si>
+    <t>AT_AL_BD_DMC_03</t>
+  </si>
+  <si>
+    <t>DS01_AT_AL_BD_DMC_03</t>
+  </si>
+  <si>
+    <t>AT_AL_BD_DMC_04</t>
+  </si>
+  <si>
+    <t>DS01_AT_AL_BD_DMC_04</t>
+  </si>
+  <si>
+    <t>AT_AL_BD_DMC_05</t>
+  </si>
+  <si>
+    <t>AT_AD_AL_DMC_01</t>
+  </si>
+  <si>
+    <t>DS01_AT_AD_AL_DMC_01</t>
+  </si>
+  <si>
+    <t>AT_AD_AL_DMC_01_01</t>
+  </si>
+  <si>
+    <t>DS01_AT_AD_AL_DMC_01_01</t>
+  </si>
+  <si>
+    <t>AT_AL_BD_DMC_06</t>
+  </si>
+  <si>
+    <t>AT_FD_AL_DMC_01</t>
+  </si>
+  <si>
+    <t>Ds01_AT_FD_AL_DMC_01</t>
+  </si>
+  <si>
+    <t>AT_AD_AL_DMC_03</t>
+  </si>
+  <si>
+    <t>DS01_AT_AD_AL_DMC_03</t>
+  </si>
+  <si>
     <t/>
-  </si>
-  <si>
-    <t>3102</t>
-  </si>
-  <si>
-    <t>00005</t>
-  </si>
-  <si>
-    <t>AT_TW_ADC_INCOME_03</t>
-  </si>
-  <si>
-    <t>DS01_AT_TW_ADC_INCOME_03</t>
-  </si>
-  <si>
-    <t>AT_TW_ADC_INCOME_01</t>
-  </si>
-  <si>
-    <t>AT_TW_ADC_INCOME_02</t>
-  </si>
-  <si>
-    <t>AT_TW_ADC_INCOME_04</t>
-  </si>
-  <si>
-    <t>AT_TW_ADC_INCOME_05</t>
-  </si>
-  <si>
-    <t>AT_MU_IDC_05</t>
-  </si>
-  <si>
-    <t>AT_MU_IDC_04</t>
-  </si>
-  <si>
-    <t>DS01_AT_MU_IDC_04</t>
-  </si>
-  <si>
-    <t>AT_MU_IDC_01</t>
-  </si>
-  <si>
-    <t>AT_MU_IDC_02</t>
-  </si>
-  <si>
-    <t>AT_MU_IDC_03</t>
-  </si>
-  <si>
-    <t>5010</t>
-  </si>
-  <si>
-    <t>return_stage</t>
-  </si>
-  <si>
-    <t>return_aler_remark</t>
-  </si>
-  <si>
-    <t>App Data Entry</t>
-  </si>
-  <si>
-    <t>Return to data entry stage</t>
-  </si>
-  <si>
-    <t>PRE_REQ_01_AT_MU_IDC_03</t>
-  </si>
-  <si>
-    <t>DS01_PRE_REQ_01_AT_MU_IDC_03</t>
-  </si>
-  <si>
-    <t>DS01_AT_MU_IDC_03</t>
-  </si>
-  <si>
-    <t>PRE_REQ_02_AT_MU_IDC_03</t>
-  </si>
-  <si>
-    <t>DS01_PRE_REQ_02_AT_MU_IDC_03</t>
-  </si>
-  <si>
-    <t>Murabaha_data_entry_user_id</t>
-  </si>
-  <si>
-    <t>userType13</t>
-  </si>
-  <si>
-    <t>0172</t>
-  </si>
-  <si>
-    <t>income_amount</t>
-  </si>
-  <si>
-    <t>income_define_percentage</t>
-  </si>
-  <si>
-    <t>income_adjusted_percentage</t>
-  </si>
-  <si>
-    <t>income_amount_considered</t>
-  </si>
-  <si>
-    <t>deduction_amount</t>
-  </si>
-  <si>
-    <t>deduction_define_percentage</t>
-  </si>
-  <si>
-    <t>deduction_adjusted_percentage</t>
-  </si>
-  <si>
-    <t>deduction_amount_considered</t>
-  </si>
-  <si>
-    <t>update_datasetID_one</t>
-  </si>
-  <si>
-    <t>3114</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>1000</t>
-  </si>
-  <si>
-    <t>0370</t>
-  </si>
-  <si>
-    <t>5070</t>
-  </si>
-  <si>
-    <t>5090</t>
-  </si>
-  <si>
-    <t>5092</t>
   </si>
 </sst>
 </file>
@@ -2269,7 +2353,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="7">
+  <fonts count="8">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2314,6 +2398,13 @@
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2537,7 +2628,7 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyBorder="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
@@ -2613,6 +2704,10 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Excel_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_5f_" xfId="2"/>
@@ -2909,10 +3004,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A41" sqref="A41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3017,7 +3112,7 @@
         <v>666</v>
       </c>
       <c r="B9" s="49" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="C9" s="48" t="s">
         <v>6</v>
@@ -3081,7 +3176,7 @@
         <v>687</v>
       </c>
       <c r="B14" s="18" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
       <c r="C14" s="48" t="s">
         <v>6</v>
@@ -3092,16 +3187,72 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="49" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B15" s="18" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="C15" s="48" t="s">
         <v>6</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>714</v>
+        <v>712</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1" t="s">
+        <v>729</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>739</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1" t="s">
+        <v>731</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1" t="s">
+        <v>734</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>738</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>733</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>735</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>737</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>736</v>
       </c>
     </row>
   </sheetData>
@@ -3120,6 +3271,10 @@
     <hyperlink ref="C13" r:id="rId12"/>
     <hyperlink ref="C14" r:id="rId13"/>
     <hyperlink ref="C15" r:id="rId14"/>
+    <hyperlink ref="C16" r:id="rId15"/>
+    <hyperlink ref="C17" r:id="rId16"/>
+    <hyperlink ref="C18" r:id="rId17"/>
+    <hyperlink ref="C19" r:id="rId18"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4885,7 +5040,7 @@
         <v>313</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>731</v>
+        <v>760</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>141</v>
@@ -9511,7 +9666,7 @@
         <v>370</v>
       </c>
       <c r="C6" s="18" t="s">
-        <v>732</v>
+        <v>760</v>
       </c>
       <c r="D6" s="17" t="s">
         <v>141</v>
@@ -12412,14 +12567,14 @@
     <col min="4" max="4" customWidth="true" width="22.28515625" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="14.28515625" collapsed="true"/>
     <col min="6" max="6" bestFit="true" customWidth="true" width="24.28515625" collapsed="true"/>
-    <col min="7" max="7" bestFit="true" customWidth="true" width="15.7578125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" width="25.62890625" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" width="27.69140625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="26.73046875" collapsed="true"/>
-    <col min="11" max="11" bestFit="true" customWidth="true" width="18.203125" collapsed="true"/>
-    <col min="12" max="12" bestFit="true" customWidth="true" width="28.07421875" collapsed="true"/>
-    <col min="13" max="13" bestFit="true" customWidth="true" width="30.13671875" collapsed="true"/>
-    <col min="14" max="14" bestFit="true" customWidth="true" width="29.1796875" collapsed="true"/>
+    <col min="7" max="7" bestFit="true" customWidth="true" width="15.7109375" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" width="25.5703125" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" width="27.7109375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="26.7109375" collapsed="true"/>
+    <col min="11" max="11" bestFit="true" customWidth="true" width="18.140625" collapsed="true"/>
+    <col min="12" max="12" bestFit="true" customWidth="true" width="28.140625" collapsed="true"/>
+    <col min="13" max="13" bestFit="true" customWidth="true" width="30.140625" collapsed="true"/>
+    <col min="14" max="14" bestFit="true" customWidth="true" width="29.140625" collapsed="true"/>
     <col min="15" max="15" customWidth="true" width="21.7109375" collapsed="true"/>
   </cols>
   <sheetData>
@@ -12437,53 +12592,53 @@
         <v>246</v>
       </c>
       <c r="E1" s="34" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="F1" s="34" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="G1" s="34" t="s">
+        <v>715</v>
+      </c>
+      <c r="H1" s="34" t="s">
+        <v>716</v>
+      </c>
+      <c r="I1" s="34" t="s">
         <v>717</v>
       </c>
-      <c r="H1" s="34" t="s">
+      <c r="J1" s="34" t="s">
         <v>718</v>
       </c>
-      <c r="I1" s="34" t="s">
+      <c r="K1" s="34" t="s">
         <v>719</v>
       </c>
-      <c r="J1" s="34" t="s">
+      <c r="L1" s="34" t="s">
         <v>720</v>
       </c>
-      <c r="K1" s="34" t="s">
+      <c r="M1" s="34" t="s">
         <v>721</v>
       </c>
-      <c r="L1" s="34" t="s">
+      <c r="N1" s="34" t="s">
         <v>722</v>
       </c>
-      <c r="M1" s="34" t="s">
+      <c r="O1" s="34" t="s">
         <v>723</v>
-      </c>
-      <c r="N1" s="34" t="s">
-        <v>724</v>
-      </c>
-      <c r="O1" s="34" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="6" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B2" s="7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C2" s="34"/>
       <c r="D2" s="34"/>
       <c r="E2" s="32" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="G2" s="34"/>
       <c r="H2" s="34"/>
@@ -12497,10 +12652,10 @@
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="6" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B3" s="7" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C3" s="34"/>
       <c r="D3" s="34"/>
@@ -12515,15 +12670,15 @@
       <c r="M3" s="34"/>
       <c r="N3" s="34"/>
       <c r="O3" s="7" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C4" s="34"/>
       <c r="D4" s="34"/>
@@ -12533,40 +12688,40 @@
         <v>150</v>
       </c>
       <c r="H4" s="27" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="J4" s="27" t="s">
         <v>150</v>
       </c>
       <c r="K4" s="27" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="L4" s="27" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="M4" s="27" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
       <c r="N4" s="27" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
       <c r="O4" s="34"/>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="26" t="s">
+        <v>698</v>
+      </c>
+      <c r="B5" s="32" t="s">
         <v>699</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>700</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>150</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="E5" s="34"/>
       <c r="F5" s="34"/>
@@ -13175,7 +13330,7 @@
     </row>
     <row r="52" spans="1:3">
       <c r="A52" s="55" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="B52" s="26"/>
       <c r="C52" s="56" t="s">
@@ -13184,7 +13339,7 @@
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="55" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B53" s="26"/>
       <c r="C53" s="56" t="s">
@@ -13193,10 +13348,10 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="6" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B54" s="7" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="C54" s="56" t="s">
         <v>127</v>
@@ -13204,10 +13359,10 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="6" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="B55" s="7" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="C55" s="56" t="s">
         <v>127</v>
@@ -13215,10 +13370,10 @@
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B56" s="7" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="C56" s="56" t="s">
         <v>127</v>
@@ -13226,10 +13381,10 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="55" t="s">
+        <v>698</v>
+      </c>
+      <c r="B57" s="32" t="s">
         <v>699</v>
-      </c>
-      <c r="B57" s="32" t="s">
-        <v>700</v>
       </c>
       <c r="C57" s="56" t="s">
         <v>127</v>
@@ -13237,7 +13392,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="55" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B58" s="26"/>
       <c r="C58" s="56" t="s">
@@ -13287,16 +13442,16 @@
     </row>
     <row r="2" spans="1:4">
       <c r="A2" s="26" t="s">
+        <v>691</v>
+      </c>
+      <c r="B2" s="32" t="s">
         <v>692</v>
-      </c>
-      <c r="B2" s="32" t="s">
-        <v>693</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>150</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
   </sheetData>
@@ -13759,7 +13914,7 @@
     </row>
     <row r="39" spans="1:3">
       <c r="A39" s="26" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="B39" s="26"/>
       <c r="C39" s="24" t="s">
@@ -13768,7 +13923,7 @@
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="26" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="B40" s="26"/>
       <c r="C40" s="24" t="s">
@@ -13777,10 +13932,10 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="26" t="s">
+        <v>691</v>
+      </c>
+      <c r="B41" s="32" t="s">
         <v>692</v>
-      </c>
-      <c r="B41" s="32" t="s">
-        <v>693</v>
       </c>
       <c r="C41" s="24" t="s">
         <v>127</v>
@@ -13788,7 +13943,7 @@
     </row>
     <row r="42" spans="1:3">
       <c r="A42" s="54" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="B42" s="26"/>
       <c r="C42" s="24" t="s">
@@ -13797,7 +13952,7 @@
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="54" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="B43" s="26"/>
       <c r="C43" s="24" t="s">
@@ -15804,17 +15959,17 @@
 
 <file path=xl/worksheets/sheet50.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D124"/>
+  <dimension ref="A1:D151"/>
   <sheetViews>
-    <sheetView topLeftCell="A91" workbookViewId="0">
-      <selection activeCell="J104" sqref="J104"/>
+    <sheetView tabSelected="1" topLeftCell="A113" workbookViewId="0">
+      <selection activeCell="K130" sqref="K130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" customWidth="true" width="34.7109375" collapsed="true"/>
     <col min="2" max="2" customWidth="true" width="38.85546875" collapsed="true"/>
-    <col min="3" max="3" bestFit="true" customWidth="true" width="20.1171875" collapsed="true"/>
+    <col min="3" max="3" bestFit="true" customWidth="true" width="20.140625" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="25.0" collapsed="true"/>
   </cols>
   <sheetData>
@@ -17549,6 +17704,378 @@
         <v>606</v>
       </c>
       <c r="D124" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>636</v>
+      </c>
+      <c r="C125" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D125" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="6" t="s">
+        <v>637</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="C126" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D126" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="6" t="s">
+        <v>639</v>
+      </c>
+      <c r="B127" s="6" t="s">
+        <v>640</v>
+      </c>
+      <c r="C127" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D127" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="B128" s="6" t="s">
+        <v>642</v>
+      </c>
+      <c r="C128" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D128" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="6" t="s">
+        <v>643</v>
+      </c>
+      <c r="B129" s="6" t="s">
+        <v>644</v>
+      </c>
+      <c r="C129" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D129" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="6" t="s">
+        <v>645</v>
+      </c>
+      <c r="B130" s="6" t="s">
+        <v>646</v>
+      </c>
+      <c r="C130" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D130" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="6" t="s">
+        <v>647</v>
+      </c>
+      <c r="B131" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="C131" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D131" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="6" t="s">
+        <v>649</v>
+      </c>
+      <c r="B132" s="6" t="s">
+        <v>650</v>
+      </c>
+      <c r="C132" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D132" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="C133" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D133" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="6" t="s">
+        <v>653</v>
+      </c>
+      <c r="B134" s="6" t="s">
+        <v>654</v>
+      </c>
+      <c r="C134" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D134" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="B135" s="6"/>
+      <c r="C135" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D135" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="B136" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="C136" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D136" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="B137" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="C137" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D137" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="57" t="s">
+        <v>656</v>
+      </c>
+      <c r="B138" s="57" t="s">
+        <v>657</v>
+      </c>
+      <c r="C138" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D138" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="57" t="s">
+        <v>658</v>
+      </c>
+      <c r="B139" s="57" t="s">
+        <v>659</v>
+      </c>
+      <c r="C139" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D139" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="57" t="s">
+        <v>660</v>
+      </c>
+      <c r="B140" s="57" t="s">
+        <v>661</v>
+      </c>
+      <c r="C140" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D140" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="57" t="s">
+        <v>662</v>
+      </c>
+      <c r="B141" s="57" t="s">
+        <v>663</v>
+      </c>
+      <c r="C141" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D141" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="57" t="s">
+        <v>664</v>
+      </c>
+      <c r="B142" s="57" t="s">
+        <v>665</v>
+      </c>
+      <c r="C142" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D142" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="26" t="s">
+        <v>744</v>
+      </c>
+      <c r="B143" s="32" t="s">
+        <v>745</v>
+      </c>
+      <c r="C143" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D143" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="26" t="s">
+        <v>746</v>
+      </c>
+      <c r="B144" s="32" t="s">
+        <v>747</v>
+      </c>
+      <c r="C144" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D144" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="26" t="s">
+        <v>748</v>
+      </c>
+      <c r="B145" s="32" t="s">
+        <v>749</v>
+      </c>
+      <c r="C145" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D145" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="26" t="s">
+        <v>750</v>
+      </c>
+      <c r="B146" s="58"/>
+      <c r="C146" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D146" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="6" t="s">
+        <v>751</v>
+      </c>
+      <c r="B147" s="7" t="s">
+        <v>752</v>
+      </c>
+      <c r="C147" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D147" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="B148" s="7" t="s">
+        <v>754</v>
+      </c>
+      <c r="C148" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D148" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="59" t="s">
+        <v>755</v>
+      </c>
+      <c r="B149" s="60"/>
+      <c r="C149" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D149" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="26" t="s">
+        <v>756</v>
+      </c>
+      <c r="B150" s="32" t="s">
+        <v>757</v>
+      </c>
+      <c r="C150" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D150" s="14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="26" t="s">
+        <v>758</v>
+      </c>
+      <c r="B151" s="32" t="s">
+        <v>759</v>
+      </c>
+      <c r="C151" s="18" t="s">
+        <v>606</v>
+      </c>
+      <c r="D151" s="14" t="s">
         <v>127</v>
       </c>
     </row>

--- a/AzentioAutomationFramework_AnandhULS/TestData/ulsTestData.xlsx
+++ b/AzentioAutomationFramework_AnandhULS/TestData/ulsTestData.xlsx
@@ -63,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3556" uniqueCount="761">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3582" uniqueCount="761">
   <si>
     <t>UserName</t>
   </si>
